--- a/cam4_validation_result.xlsx
+++ b/cam4_validation_result.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voies\Desktop\GodEyesProject\CalibPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB67F34D-02FA-4BD7-BC5C-41FD0F395AF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD768F44-88EB-45F6-888E-0CEFE4735C5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{EDF124C2-77FF-41DF-A49C-75F1947FF335}"/>
+    <workbookView xWindow="15257" yWindow="3086" windowWidth="16192" windowHeight="13225" xr2:uid="{EDF124C2-77FF-41DF-A49C-75F1947FF335}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$E$2:$E$91</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$G$2:$G$91</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -190,274 +189,274 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>0.44131932343907465</c:v>
+                  <c:v>-0.39035748097057876</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.0425295453314902E-2</c:v>
+                  <c:v>1.5895500850851931</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.43119952808410744</c:v>
+                  <c:v>1.1195477286905771</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10992612805239332</c:v>
+                  <c:v>0.74135126019382369</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.2393017122121819E-2</c:v>
+                  <c:v>-4.8433479949380853E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.51677781650914767</c:v>
+                  <c:v>-0.89805712603447319</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1952911102371218</c:v>
+                  <c:v>-0.39981295130337458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.69860950893735208</c:v>
+                  <c:v>0.1732364923991554</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.52216538814627711</c:v>
+                  <c:v>-0.33899600461018053</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.24835194663091897</c:v>
+                  <c:v>-0.7356871476536071</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-6.7809327259965357E-2</c:v>
+                  <c:v>-0.84776976507555446</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.30471570826648531</c:v>
+                  <c:v>-0.51608936526326943</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.0884131957291174</c:v>
+                  <c:v>-0.46889568110509572</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.3466389105187773</c:v>
+                  <c:v>0.19055032642518199</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.7542964751442014</c:v>
+                  <c:v>-1.5944705719739432</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.59269719478061234</c:v>
+                  <c:v>-0.64849640614602322</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.2507508857288485</c:v>
+                  <c:v>0.59288075730501077</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.2323278969611238</c:v>
+                  <c:v>0.56780793207735769</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.8099324704458013</c:v>
+                  <c:v>-6.8463525354218291E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.5502972883264192</c:v>
+                  <c:v>2.1733887661957851</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.4501412051117768</c:v>
+                  <c:v>1.5496689595752287</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.20765614131551047</c:v>
+                  <c:v>0.55976403535942154</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.38098161282186993</c:v>
+                  <c:v>0.35899648422082464</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.93690073094785475</c:v>
+                  <c:v>0.40771702268102672</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.87961256816606692</c:v>
+                  <c:v>0.53773540059546576</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.73784543091596788</c:v>
+                  <c:v>0.31025320240723886</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.84152365217096303</c:v>
+                  <c:v>-0.10315382399176087</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.67341314099348892</c:v>
+                  <c:v>-0.31375314071647153</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.14411180569504722</c:v>
+                  <c:v>-0.4703865503038287</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.36055692747777357</c:v>
+                  <c:v>-0.48727367805395261</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.57082065381791836</c:v>
+                  <c:v>-0.70222804783770698</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1.5384819792598137</c:v>
+                  <c:v>0.19803188301057162</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-2.2072658806937397</c:v>
+                  <c:v>0.22501786676184565</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.43255101697195641</c:v>
+                  <c:v>-0.61790936875922853</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.23275492682660115</c:v>
+                  <c:v>-2.1093514558742754E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.3954801880286141</c:v>
+                  <c:v>0.97821329414591673</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.6569288544174015</c:v>
+                  <c:v>1.6716491131919611</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.378442584953973</c:v>
+                  <c:v>1.8476192786447427</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.38437924564368586</c:v>
+                  <c:v>1.2594112494498404</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-2.7190590723421337E-2</c:v>
+                  <c:v>0.45821355259067786</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-9.5984603539818636E-2</c:v>
+                  <c:v>1.0427446248882006</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.35155952112745581</c:v>
+                  <c:v>0.3362696838521515</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.84244018290883105</c:v>
+                  <c:v>1.6955977416273527E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.1833797407775819</c:v>
+                  <c:v>4.7029485720486264E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.69479802005434976</c:v>
+                  <c:v>0.91177547413462889</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.0725556478114413</c:v>
+                  <c:v>1.7322784508655786</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.35983940442883977</c:v>
+                  <c:v>-0.26237218742926416</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-3.6650418981025723E-2</c:v>
+                  <c:v>1.4095364367353795</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.39099518287821411</c:v>
+                  <c:v>0.79475175545485399</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.80334992207190226</c:v>
+                  <c:v>-9.2947451845247997E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-2.2527704729523066</c:v>
+                  <c:v>-9.6623890801311063E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-0.17348486497394333</c:v>
+                  <c:v>-0.77148507846686698</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.88966173533617621</c:v>
+                  <c:v>-0.59857091790399863</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.5555949406348191</c:v>
+                  <c:v>-2.2683589731059328E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.2385011355281677</c:v>
+                  <c:v>-0.95836257454129736</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.4617039536237826</c:v>
+                  <c:v>1.0757711348760495</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.24825359328315244</c:v>
+                  <c:v>0.58242627446088591</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-1.1243663968666624</c:v>
+                  <c:v>3.3797794703787076E-3</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.76299323411285513</c:v>
+                  <c:v>0.40939149669566177</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.31305562373154316</c:v>
+                  <c:v>-0.2999671518082323</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.1415465066625075</c:v>
+                  <c:v>0.14285091039118925</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.2099941613396368</c:v>
+                  <c:v>-0.32343550248742758</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.72142612345260204</c:v>
+                  <c:v>-1.049354097977357</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.2055368475262185</c:v>
+                  <c:v>-1.2529188006988079</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.60535886917614334</c:v>
+                  <c:v>1.5199285153216806</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.1538981551098004</c:v>
+                  <c:v>-1.5904847262222574</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-1.1502200276177064</c:v>
+                  <c:v>0.47622683698909896</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-1.4264431191627409</c:v>
+                  <c:v>0.33584281378170999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-0.98945202363029239</c:v>
+                  <c:v>-0.87382922027609311</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-0.87866293616252733</c:v>
+                  <c:v>-0.39004712704172562</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-0.69247706131727682</c:v>
+                  <c:v>-0.691089259275941</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.1616892333577198</c:v>
+                  <c:v>-0.52893642528533746</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.4663739195775634</c:v>
+                  <c:v>1.3761717043321369</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.62181701648387389</c:v>
+                  <c:v>-0.22794253985011892</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-1.0581277922660774</c:v>
+                  <c:v>-1.269749672486796</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-1.779055422788133</c:v>
+                  <c:v>-2.3120048222472178</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-1.7988444124989655</c:v>
+                  <c:v>-1.8972480945458301</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.84436462031999326</c:v>
+                  <c:v>-1.3418723031381887</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.63418891234323382</c:v>
+                  <c:v>-0.38846083238377105</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.24001625945084015</c:v>
+                  <c:v>-1.0883547448524951</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.56011025018779037</c:v>
+                  <c:v>1.0165168841067498</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.0417192629702186</c:v>
+                  <c:v>1.7398500208560108</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.7544313606072137</c:v>
+                  <c:v>0.1554764397164945</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.3232966600958207</c:v>
+                  <c:v>1.5732166054581285</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.48725938547795522</c:v>
+                  <c:v>0.4336349484983657</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.59883988600040539</c:v>
+                  <c:v>-0.30842791869463326</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-3.1387578996586853</c:v>
+                  <c:v>-0.51524277617772896</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-0.96686901468183351</c:v>
+                  <c:v>-0.64243955469237335</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.87593148858695713</c:v>
+                  <c:v>-0.48381320192720523</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.86972522925361773</c:v>
+                  <c:v>-1.0379320703782469</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2216,7 +2215,7 @@
   <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+      <selection activeCell="H2" sqref="H2:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2243,48 +2242,48 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>2555.3000000000002</v>
+        <v>2552.5</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2555.7413193234393</v>
+        <v>2552.1096425190294</v>
       </c>
       <c r="D2">
-        <v>-5.1532719664232056E-2</v>
+        <v>-0.11844300864129123</v>
       </c>
       <c r="E2">
-        <v>0.44131932343907465</v>
+        <v>-0.39035748097057876</v>
       </c>
       <c r="F2">
-        <v>-5.1532719664232056E-2</v>
+        <v>-0.11844300864129123</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
       </c>
       <c r="I2">
-        <v>0.8772194445123761</v>
+        <v>0.72922839008730178</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2555.3000000000002</v>
+        <v>2552.5</v>
       </c>
       <c r="B3">
         <v>-16.079999999999998</v>
       </c>
       <c r="C3">
-        <v>2555.3904252954535</v>
+        <v>2554.0895500850852</v>
       </c>
       <c r="D3">
-        <v>-16.003599775863332</v>
+        <v>-15.975541492221662</v>
       </c>
       <c r="E3">
-        <v>9.0425295453314902E-2</v>
+        <v>1.5895500850851931</v>
       </c>
       <c r="F3">
-        <v>7.6400224136666139E-2</v>
+        <v>0.10445850777833598</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
@@ -2295,1780 +2294,1780 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>2555.3000000000002</v>
+        <v>2552.5</v>
       </c>
       <c r="B4">
-        <v>-13.98</v>
+        <v>-14</v>
       </c>
       <c r="C4">
-        <v>2555.7311995280843</v>
+        <v>2553.6195477286906</v>
       </c>
       <c r="D4">
-        <v>-13.903264672265648</v>
+        <v>-13.919663216829372</v>
       </c>
       <c r="E4">
-        <v>0.43119952808410744</v>
+        <v>1.1195477286905771</v>
       </c>
       <c r="F4">
-        <v>7.6735327734352765E-2</v>
+        <v>8.0336783170627868E-2</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
       </c>
       <c r="I4">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>2555.3000000000002</v>
+        <v>2552.5</v>
       </c>
       <c r="B5">
-        <v>-11.93</v>
+        <v>-11.95</v>
       </c>
       <c r="C5">
-        <v>2555.4099261280526</v>
+        <v>2553.2413512601938</v>
       </c>
       <c r="D5">
-        <v>-11.911767054445942</v>
+        <v>-11.931780825283218</v>
       </c>
       <c r="E5">
-        <v>0.10992612805239332</v>
+        <v>0.74135126019382369</v>
       </c>
       <c r="F5">
-        <v>1.8232945554057522E-2</v>
+        <v>1.8219174716781694E-2</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
       </c>
       <c r="I5">
-        <v>0.94444444444444442</v>
+        <v>0.97777777777777775</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>2555.3000000000002</v>
+        <v>2552.5</v>
       </c>
       <c r="B6">
-        <v>-9.9499999999999993</v>
+        <v>-9.98</v>
       </c>
       <c r="C6">
-        <v>2555.2876069828781</v>
+        <v>2552.4515665200506</v>
       </c>
       <c r="D6">
-        <v>-9.9850253393801989</v>
+        <v>-9.9898231895398393</v>
       </c>
       <c r="E6">
-        <v>-1.2393017122121819E-2</v>
+        <v>-4.8433479949380853E-2</v>
       </c>
       <c r="F6">
-        <v>-3.5025339380199583E-2</v>
+        <v>-9.8231895398388502E-3</v>
       </c>
       <c r="H6" t="s">
         <v>10</v>
       </c>
       <c r="I6">
-        <v>2.0725556478114413</v>
+        <v>1.7398500208560108</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>2555.3000000000002</v>
+        <v>2552.5</v>
       </c>
       <c r="B7">
-        <v>-7.95</v>
+        <v>-7.98</v>
       </c>
       <c r="C7">
-        <v>2555.8167778165093</v>
+        <v>2551.6019428739655</v>
       </c>
       <c r="D7">
-        <v>-8.0203404995086185</v>
+        <v>-8.0274888326656928</v>
       </c>
       <c r="E7">
-        <v>0.51677781650914767</v>
+        <v>-0.89805712603447319</v>
       </c>
       <c r="F7">
-        <v>-7.0340499508618315E-2</v>
+        <v>-4.7488832665692371E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>2555.3000000000002</v>
+        <v>2552.5</v>
       </c>
       <c r="B8">
-        <v>-5.95</v>
+        <v>-5.98</v>
       </c>
       <c r="C8">
-        <v>2556.4952911102373</v>
+        <v>2552.1001870486966</v>
       </c>
       <c r="D8">
-        <v>-6.0359191899862017</v>
+        <v>-6.0309263826605966</v>
       </c>
       <c r="E8">
-        <v>1.1952911102371218</v>
+        <v>-0.39981295130337458</v>
       </c>
       <c r="F8">
-        <v>-8.5919189986201516E-2</v>
+        <v>-5.0926382660596126E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>2555.3000000000002</v>
+        <v>2552.5</v>
       </c>
       <c r="B9">
-        <v>-3.95</v>
+        <v>-3.98</v>
       </c>
       <c r="C9">
-        <v>2555.9986095089375</v>
+        <v>2552.6732364923992</v>
       </c>
       <c r="D9">
-        <v>-4.0543278221053942</v>
+        <v>-4.0643885701133202</v>
       </c>
       <c r="E9">
-        <v>0.69860950893735208</v>
+        <v>0.1732364923991554</v>
       </c>
       <c r="F9">
-        <v>-0.10432782210539404</v>
+        <v>-8.4388570113320238E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>2555.3000000000002</v>
+        <v>2552.5</v>
       </c>
       <c r="B10">
-        <v>-1.98</v>
+        <v>-2</v>
       </c>
       <c r="C10">
-        <v>2554.7778346118539</v>
+        <v>2552.1610039953898</v>
       </c>
       <c r="D10">
-        <v>-2.0684482575720433</v>
+        <v>-2.0989380113895408</v>
       </c>
       <c r="E10">
-        <v>-0.52216538814627711</v>
+        <v>-0.33899600461018053</v>
       </c>
       <c r="F10">
-        <v>-8.8448257572043332E-2</v>
+        <v>-9.8938011389540836E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>2555.3000000000002</v>
+        <v>2552.5</v>
       </c>
       <c r="B11">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="C11">
-        <v>2555.5483519466311</v>
+        <v>2551.7643128523464</v>
       </c>
       <c r="D11">
-        <v>-4.5238818927932842E-2</v>
+        <v>-5.0219022633806815E-2</v>
       </c>
       <c r="E11">
-        <v>0.24835194663091897</v>
+        <v>-0.7356871476536071</v>
       </c>
       <c r="F11">
-        <v>-9.5238818927932845E-2</v>
+        <v>-7.0219022633806819E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>2555.3000000000002</v>
+        <v>2552.5</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="C12">
-        <v>2555.2321906727402</v>
+        <v>2551.6522302349244</v>
       </c>
       <c r="D12">
-        <v>1.9307591637484893</v>
+        <v>1.9082475177637055</v>
       </c>
       <c r="E12">
-        <v>-6.7809327259965357E-2</v>
+        <v>-0.84776976507555446</v>
       </c>
       <c r="F12">
-        <v>-6.9240836251510673E-2</v>
+        <v>-6.1752482236294481E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>2555.3000000000002</v>
+        <v>2552.5</v>
       </c>
       <c r="B13">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>2554.9952842917337</v>
+        <v>2551.9839106347367</v>
       </c>
       <c r="D13">
-        <v>3.9715681238922556</v>
+        <v>3.9341604463831752</v>
       </c>
       <c r="E13">
-        <v>-0.30471570826648531</v>
+        <v>-0.51608936526326943</v>
       </c>
       <c r="F13">
-        <v>-7.8431876107744269E-2</v>
+        <v>-6.5839553616824809E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>2555.3000000000002</v>
+        <v>2552.5</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>5.97</v>
       </c>
       <c r="C14">
-        <v>2554.2115868042711</v>
+        <v>2552.0311043188949</v>
       </c>
       <c r="D14">
-        <v>5.9554029772155586</v>
+        <v>5.9290921366819713</v>
       </c>
       <c r="E14">
-        <v>-1.0884131957291174</v>
+        <v>-0.46889568110509572</v>
       </c>
       <c r="F14">
-        <v>-4.4597022784441442E-2</v>
+        <v>-4.0907863318028426E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>2555.3000000000002</v>
+        <v>2552.5</v>
       </c>
       <c r="B15">
-        <v>7.98</v>
+        <v>8</v>
       </c>
       <c r="C15">
-        <v>2553.9533610894814</v>
+        <v>2552.6905503264252</v>
       </c>
       <c r="D15">
-        <v>7.9921536831280884</v>
+        <v>7.9650821768797782</v>
       </c>
       <c r="E15">
-        <v>-1.3466389105187773</v>
+        <v>0.19055032642518199</v>
       </c>
       <c r="F15">
-        <v>1.2153683128087955E-2</v>
+        <v>-3.4917823120221847E-2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>2555.3000000000002</v>
+        <v>2552.5</v>
       </c>
       <c r="B16">
-        <v>10.02</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="C16">
-        <v>2553.545703524856</v>
+        <v>2550.9055294280261</v>
       </c>
       <c r="D16">
-        <v>10.059874204503057</v>
+        <v>9.9434151633119381</v>
       </c>
       <c r="E16">
-        <v>-1.7542964751442014</v>
+        <v>-1.5944705719739432</v>
       </c>
       <c r="F16">
-        <v>3.9874204503057342E-2</v>
+        <v>-6.5848366880612019E-3</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>2555.3000000000002</v>
+        <v>2552.5</v>
       </c>
       <c r="B17">
-        <v>12</v>
+        <v>11.97</v>
       </c>
       <c r="C17">
-        <v>2554.7073028052196</v>
+        <v>2551.851503593854</v>
       </c>
       <c r="D17">
-        <v>12.042499957097872</v>
+        <v>11.98313118037016</v>
       </c>
       <c r="E17">
-        <v>-0.59269719478061234</v>
+        <v>-0.64849640614602322</v>
       </c>
       <c r="F17">
-        <v>4.2499957097872354E-2</v>
+        <v>1.3131180370159257E-2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>2555.3000000000002</v>
+        <v>2552.5</v>
       </c>
       <c r="B18">
-        <v>14</v>
+        <v>13.97</v>
       </c>
       <c r="C18">
-        <v>2556.550750885729</v>
+        <v>2553.092880757305</v>
       </c>
       <c r="D18">
-        <v>14.061722178173259</v>
+        <v>13.991007326222292</v>
       </c>
       <c r="E18">
-        <v>1.2507508857288485</v>
+        <v>0.59288075730501077</v>
       </c>
       <c r="F18">
-        <v>6.1722178173258868E-2</v>
+        <v>2.1007326222290956E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>2555.3000000000002</v>
+        <v>2552.5</v>
       </c>
       <c r="B19">
-        <v>15.98</v>
+        <v>15.95</v>
       </c>
       <c r="C19">
-        <v>2557.5323278969613</v>
+        <v>2553.0678079320774</v>
       </c>
       <c r="D19">
-        <v>16.069327025576335</v>
+        <v>15.984692592940341</v>
       </c>
       <c r="E19">
-        <v>2.2323278969611238</v>
+        <v>0.56780793207735769</v>
       </c>
       <c r="F19">
-        <v>8.9327025576334762E-2</v>
+        <v>3.4692592940341882E-2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>2655</v>
+        <v>2652.2</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2655.8099324704458</v>
+        <v>2652.1315364746456</v>
       </c>
       <c r="D20">
-        <v>-4.6874025309282454E-2</v>
+        <v>-9.0454993415016602E-2</v>
       </c>
       <c r="E20">
-        <v>0.8099324704458013</v>
+        <v>-6.8463525354218291E-2</v>
       </c>
       <c r="F20">
-        <v>-4.6874025309282454E-2</v>
+        <v>-9.0454993415016602E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>2655</v>
+        <v>2652.2</v>
       </c>
       <c r="B21">
-        <v>-16.07</v>
+        <v>-16.079999999999998</v>
       </c>
       <c r="C21">
-        <v>2656.5502972883264</v>
+        <v>2654.3733887661956</v>
       </c>
       <c r="D21">
-        <v>-15.961280829512583</v>
+        <v>-15.886584021635361</v>
       </c>
       <c r="E21">
-        <v>1.5502972883264192</v>
+        <v>2.1733887661957851</v>
       </c>
       <c r="F21">
-        <v>0.10871917048741686</v>
+        <v>0.1934159783646372</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>2655</v>
+        <v>2652.2</v>
       </c>
       <c r="B22">
         <v>-13.98</v>
       </c>
       <c r="C22">
-        <v>2655.4501412051118</v>
+        <v>2653.749668959575</v>
       </c>
       <c r="D22">
-        <v>-13.89308774756309</v>
+        <v>-13.838937397286227</v>
       </c>
       <c r="E22">
-        <v>0.4501412051117768</v>
+        <v>1.5496689595752287</v>
       </c>
       <c r="F22">
-        <v>8.6912252436910364E-2</v>
+        <v>0.1410626027137738</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>2655</v>
+        <v>2652.2</v>
       </c>
       <c r="B23">
-        <v>-11.95</v>
+        <v>-11.98</v>
       </c>
       <c r="C23">
-        <v>2655.2076561413155</v>
+        <v>2652.7597640353592</v>
       </c>
       <c r="D23">
-        <v>-11.895457268990365</v>
+        <v>-11.905519743917752</v>
       </c>
       <c r="E23">
-        <v>0.20765614131551047</v>
+        <v>0.55976403535942154</v>
       </c>
       <c r="F23">
-        <v>5.4542731009634693E-2</v>
+        <v>7.4480256082248175E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>2655</v>
+        <v>2652.2</v>
       </c>
       <c r="B24">
-        <v>-9.9499999999999993</v>
+        <v>-9.98</v>
       </c>
       <c r="C24">
-        <v>2654.6190183871781</v>
+        <v>2652.5589964842206</v>
       </c>
       <c r="D24">
-        <v>-9.9196440060959805</v>
+        <v>-9.9493937696613397</v>
       </c>
       <c r="E24">
-        <v>-0.38098161282186993</v>
+        <v>0.35899648422082464</v>
       </c>
       <c r="F24">
-        <v>3.0355993904018774E-2</v>
+        <v>3.0606230338660723E-2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>2655</v>
+        <v>2652.2</v>
       </c>
       <c r="B25">
-        <v>-7.95</v>
+        <v>-7.98</v>
       </c>
       <c r="C25">
-        <v>2655.9369007309479</v>
+        <v>2652.6077170226808</v>
       </c>
       <c r="D25">
-        <v>-7.9589312462891701</v>
+        <v>-7.9690213138953157</v>
       </c>
       <c r="E25">
-        <v>0.93690073094785475</v>
+        <v>0.40771702268102672</v>
       </c>
       <c r="F25">
-        <v>-8.9312462891699695E-3</v>
+        <v>1.0978686104684776E-2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>2655</v>
+        <v>2652.2</v>
       </c>
       <c r="B26">
-        <v>-5.95</v>
+        <v>-5.98</v>
       </c>
       <c r="C26">
-        <v>2655.8796125681661</v>
+        <v>2652.7377354005953</v>
       </c>
       <c r="D26">
-        <v>-6.0015895732392659</v>
+        <v>-5.9880046948145136</v>
       </c>
       <c r="E26">
-        <v>0.87961256816606692</v>
+        <v>0.53773540059546576</v>
       </c>
       <c r="F26">
-        <v>-5.1589573239265718E-2</v>
+        <v>-8.004694814513158E-3</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>2655</v>
+        <v>2652.2</v>
       </c>
       <c r="B27">
-        <v>-3.95</v>
+        <v>-3.98</v>
       </c>
       <c r="C27">
-        <v>2655.737845430916</v>
+        <v>2652.5102532024071</v>
       </c>
       <c r="D27">
-        <v>-4.0225189817236311</v>
+        <v>-4.0158745351489102</v>
       </c>
       <c r="E27">
-        <v>0.73784543091596788</v>
+        <v>0.31025320240723886</v>
       </c>
       <c r="F27">
-        <v>-7.2518981723630915E-2</v>
+        <v>-3.5874535148910258E-2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>2655</v>
+        <v>2652.2</v>
       </c>
       <c r="B28">
-        <v>-1.98</v>
+        <v>-2</v>
       </c>
       <c r="C28">
-        <v>2655.841523652171</v>
+        <v>2652.0968461760081</v>
       </c>
       <c r="D28">
-        <v>-2.020397133529571</v>
+        <v>-2.0553886654204474</v>
       </c>
       <c r="E28">
-        <v>0.84152365217096303</v>
+        <v>-0.10315382399176087</v>
       </c>
       <c r="F28">
-        <v>-4.0397133529570972E-2</v>
+        <v>-5.5388665420447403E-2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>2655</v>
+        <v>2652.2</v>
       </c>
       <c r="B29">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="C29">
-        <v>2655.6734131409935</v>
+        <v>2651.8862468592833</v>
       </c>
       <c r="D29">
-        <v>-2.904441797952368E-2</v>
+        <v>-3.1789874420292387E-2</v>
       </c>
       <c r="E29">
-        <v>0.67341314099348892</v>
+        <v>-0.31375314071647153</v>
       </c>
       <c r="F29">
-        <v>-7.904441797952369E-2</v>
+        <v>-5.1789874420292384E-2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>2655</v>
+        <v>2652.2</v>
       </c>
       <c r="B30">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>2655.144111805695</v>
+        <v>2651.729613449696</v>
       </c>
       <c r="D30">
-        <v>1.9579916751560398</v>
+        <v>1.9373774742359695</v>
       </c>
       <c r="E30">
-        <v>0.14411180569504722</v>
+        <v>-0.4703865503038287</v>
       </c>
       <c r="F30">
-        <v>-6.2008324843960239E-2</v>
+        <v>-6.262252576403049E-2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>2655</v>
+        <v>2652.2</v>
       </c>
       <c r="B31">
-        <v>4.0199999999999996</v>
+        <v>3.98</v>
       </c>
       <c r="C31">
-        <v>2655.3605569274778</v>
+        <v>2651.7127263219459</v>
       </c>
       <c r="D31">
-        <v>3.9669676437774055</v>
+        <v>3.9385252114749982</v>
       </c>
       <c r="E31">
-        <v>0.36055692747777357</v>
+        <v>-0.48727367805395261</v>
       </c>
       <c r="F31">
-        <v>-5.3032356222594057E-2</v>
+        <v>-4.1474788525001749E-2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>2655</v>
+        <v>2652.2</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>5.98</v>
       </c>
       <c r="C32">
-        <v>2654.4291793461821</v>
+        <v>2651.4977719521621</v>
       </c>
       <c r="D32">
-        <v>5.9756053542601819</v>
+        <v>5.9444318922936361</v>
       </c>
       <c r="E32">
-        <v>-0.57082065381791836</v>
+        <v>-0.70222804783770698</v>
       </c>
       <c r="F32">
-        <v>-2.4394645739818088E-2</v>
+        <v>-3.5568107706364316E-2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>2655</v>
+        <v>2652.2</v>
       </c>
       <c r="B33">
-        <v>8</v>
+        <v>7.98</v>
       </c>
       <c r="C33">
-        <v>2653.4615180207402</v>
+        <v>2652.3980318830104</v>
       </c>
       <c r="D33">
-        <v>7.9969744702416712</v>
+        <v>7.9809451891306562</v>
       </c>
       <c r="E33">
-        <v>-1.5384819792598137</v>
+        <v>0.19803188301057162</v>
       </c>
       <c r="F33">
-        <v>-3.0255297583288154E-3</v>
+        <v>9.4518913065577692E-4</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>2655</v>
+        <v>2652.2</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>9.98</v>
       </c>
       <c r="C34">
-        <v>2652.7927341193063</v>
+        <v>2652.4250178667617</v>
       </c>
       <c r="D34">
-        <v>10.028425421519652</v>
+        <v>9.9867583382130469</v>
       </c>
       <c r="E34">
-        <v>-2.2072658806937397</v>
+        <v>0.22501786676184565</v>
       </c>
       <c r="F34">
-        <v>2.842542151965155E-2</v>
+        <v>6.7583382130464997E-3</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>2655</v>
+        <v>2652.2</v>
       </c>
       <c r="B35">
-        <v>12</v>
+        <v>11.95</v>
       </c>
       <c r="C35">
-        <v>2654.567448983028</v>
+        <v>2651.5820906312406</v>
       </c>
       <c r="D35">
-        <v>12.03679817523299</v>
+        <v>11.996049550667117</v>
       </c>
       <c r="E35">
-        <v>-0.43255101697195641</v>
+        <v>-0.61790936875922853</v>
       </c>
       <c r="F35">
-        <v>3.6798175232990005E-2</v>
+        <v>4.6049550667117245E-2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>2655</v>
+        <v>2652.2</v>
       </c>
       <c r="B36">
-        <v>14</v>
+        <v>13.98</v>
       </c>
       <c r="C36">
-        <v>2654.7672450731734</v>
+        <v>2652.1789064854411</v>
       </c>
       <c r="D36">
-        <v>14.060451181803472</v>
+        <v>14.017544941313158</v>
       </c>
       <c r="E36">
-        <v>-0.23275492682660115</v>
+        <v>-2.1093514558742754E-2</v>
       </c>
       <c r="F36">
-        <v>6.0451181803472309E-2</v>
+        <v>3.7544941313157665E-2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>2655</v>
+        <v>2652.2</v>
       </c>
       <c r="B37">
-        <v>16</v>
+        <v>15.98</v>
       </c>
       <c r="C37">
-        <v>2656.3954801880286</v>
+        <v>2653.1782132941457</v>
       </c>
       <c r="D37">
-        <v>16.069158303488322</v>
+        <v>15.997284317417089</v>
       </c>
       <c r="E37">
-        <v>1.3954801880286141</v>
+        <v>0.97821329414591673</v>
       </c>
       <c r="F37">
-        <v>6.9158303488322304E-2</v>
+        <v>1.7284317417088246E-2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>2754.7</v>
+        <v>2751.9</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>2756.3569288544172</v>
+        <v>2753.5716491131921</v>
       </c>
       <c r="D38">
-        <v>-3.7197290121887515E-2</v>
+        <v>-8.1707594258128707E-2</v>
       </c>
       <c r="E38">
-        <v>1.6569288544174015</v>
+        <v>1.6716491131919611</v>
       </c>
       <c r="F38">
-        <v>-3.7197290121887515E-2</v>
+        <v>-8.1707594258128707E-2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>2754.7</v>
+        <v>2751.9</v>
       </c>
       <c r="B39">
-        <v>-16.07</v>
+        <v>-16.079999999999998</v>
       </c>
       <c r="C39">
-        <v>2756.0784425849538</v>
+        <v>2753.7476192786448</v>
       </c>
       <c r="D39">
-        <v>-15.935422768020469</v>
+        <v>-15.84639927712583</v>
       </c>
       <c r="E39">
-        <v>1.378442584953973</v>
+        <v>1.8476192786447427</v>
       </c>
       <c r="F39">
-        <v>0.13457723197953086</v>
+        <v>0.23360072287416855</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>2754.7</v>
+        <v>2751.9</v>
       </c>
       <c r="B40">
         <v>-13.98</v>
       </c>
       <c r="C40">
-        <v>2755.0843792456435</v>
+        <v>2753.1594112494499</v>
       </c>
       <c r="D40">
-        <v>-13.854368384042338</v>
+        <v>-13.813963881736283</v>
       </c>
       <c r="E40">
-        <v>0.38437924564368586</v>
+        <v>1.2594112494498404</v>
       </c>
       <c r="F40">
-        <v>0.12563161595766204</v>
+        <v>0.16603611826371711</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>2754.7</v>
+        <v>2751.9</v>
       </c>
       <c r="B41">
-        <v>-11.95</v>
+        <v>-11.98</v>
       </c>
       <c r="C41">
-        <v>2754.6728094092764</v>
+        <v>2752.3582135525908</v>
       </c>
       <c r="D41">
-        <v>-11.867855091299603</v>
+        <v>-11.860961959958205</v>
       </c>
       <c r="E41">
-        <v>-2.7190590723421337E-2</v>
+        <v>0.45821355259067786</v>
       </c>
       <c r="F41">
-        <v>8.2144908700396257E-2</v>
+        <v>0.11903804004179541</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>2754.7</v>
+        <v>2751.9</v>
       </c>
       <c r="B42">
-        <v>-9.9499999999999993</v>
+        <v>-9.98</v>
       </c>
       <c r="C42">
-        <v>2754.60401539646</v>
+        <v>2752.9427446248883</v>
       </c>
       <c r="D42">
-        <v>-9.8975577290561105</v>
+        <v>-9.9165350549779312</v>
       </c>
       <c r="E42">
-        <v>-9.5984603539818636E-2</v>
+        <v>1.0427446248882006</v>
       </c>
       <c r="F42">
-        <v>5.2442270943888758E-2</v>
+        <v>6.346494502206923E-2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>2754.7</v>
+        <v>2751.9</v>
       </c>
       <c r="B43">
-        <v>-7.95</v>
+        <v>-7.98</v>
       </c>
       <c r="C43">
-        <v>2755.0515595211273</v>
+        <v>2752.2362696838522</v>
       </c>
       <c r="D43">
-        <v>-7.9380656415838633</v>
+        <v>-7.9435908190179116</v>
       </c>
       <c r="E43">
-        <v>0.35155952112745581</v>
+        <v>0.3362696838521515</v>
       </c>
       <c r="F43">
-        <v>1.1934358416136881E-2</v>
+        <v>3.6409180982088785E-2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>2754.7</v>
+        <v>2751.9</v>
       </c>
       <c r="B44">
-        <v>-5.95</v>
+        <v>-5.98</v>
       </c>
       <c r="C44">
-        <v>2755.5424401829086</v>
+        <v>2751.9169559774164</v>
       </c>
       <c r="D44">
-        <v>-5.9861810760496308</v>
+        <v>-5.9711571141412323</v>
       </c>
       <c r="E44">
-        <v>0.84244018290883105</v>
+        <v>1.6955977416273527E-2</v>
       </c>
       <c r="F44">
-        <v>-3.6181076049630612E-2</v>
+        <v>8.8428858587681347E-3</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>2754.7</v>
+        <v>2751.9</v>
       </c>
       <c r="B45">
-        <v>-3.95</v>
+        <v>-3.98</v>
       </c>
       <c r="C45">
-        <v>2755.8833797407774</v>
+        <v>2751.9470294857206</v>
       </c>
       <c r="D45">
-        <v>-3.996922468537897</v>
+        <v>-4.0020588824710046</v>
       </c>
       <c r="E45">
-        <v>1.1833797407775819</v>
+        <v>4.7029485720486264E-2</v>
       </c>
       <c r="F45">
-        <v>-4.6922468537896833E-2</v>
+        <v>-2.2058882471004626E-2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>2754.7</v>
+        <v>2751.9</v>
       </c>
       <c r="B46">
-        <v>-1.98</v>
+        <v>-2</v>
       </c>
       <c r="C46">
-        <v>2755.3947980200542</v>
+        <v>2752.8117754741347</v>
       </c>
       <c r="D46">
-        <v>-2.0149151836975774</v>
+        <v>-2.0377275967027106</v>
       </c>
       <c r="E46">
-        <v>0.69479802005434976</v>
+        <v>0.91177547413462889</v>
       </c>
       <c r="F46">
-        <v>-3.4915183697577401E-2</v>
+        <v>-3.7727596702710642E-2</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>2754.7</v>
+        <v>2751.9</v>
       </c>
       <c r="B47">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="C47">
-        <v>2756.7725556478113</v>
+        <v>2753.6322784508657</v>
       </c>
       <c r="D47">
-        <v>-9.1192282474991306E-3</v>
+        <v>-1.8485984623633624E-2</v>
       </c>
       <c r="E47">
-        <v>2.0725556478114413</v>
+        <v>1.7322784508655786</v>
       </c>
       <c r="F47">
-        <v>-5.9119228247499135E-2</v>
+        <v>-3.8485984623633625E-2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>2754.7</v>
+        <v>2751.9</v>
       </c>
       <c r="B48">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="C48">
-        <v>2755.0598394044287</v>
+        <v>2751.6376278125708</v>
       </c>
       <c r="D48">
-        <v>1.9674582056846657</v>
+        <v>1.9414634269992719</v>
       </c>
       <c r="E48">
-        <v>0.35983940442883977</v>
+        <v>-0.26237218742926416</v>
       </c>
       <c r="F48">
-        <v>-5.2541794315334345E-2</v>
+        <v>-5.853657300072812E-2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>2754.7</v>
+        <v>2751.9</v>
       </c>
       <c r="B49">
-        <v>4.0199999999999996</v>
+        <v>3.98</v>
       </c>
       <c r="C49">
-        <v>2754.6633495810188</v>
+        <v>2753.3095364367355</v>
       </c>
       <c r="D49">
-        <v>3.9730333277469549</v>
+        <v>3.9300625668934583</v>
       </c>
       <c r="E49">
-        <v>-3.6650418981025723E-2</v>
+        <v>1.4095364367353795</v>
       </c>
       <c r="F49">
-        <v>-4.6966672253044628E-2</v>
+        <v>-4.993743310654164E-2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>2754.7</v>
+        <v>2751.9</v>
       </c>
       <c r="B50">
-        <v>6</v>
+        <v>5.98</v>
       </c>
       <c r="C50">
-        <v>2755.090995182878</v>
+        <v>2752.6947517554549</v>
       </c>
       <c r="D50">
-        <v>5.9762152104436463</v>
+        <v>5.9438829993861155</v>
       </c>
       <c r="E50">
-        <v>0.39099518287821411</v>
+        <v>0.79475175545485399</v>
       </c>
       <c r="F50">
-        <v>-2.3784789556353658E-2</v>
+        <v>-3.6117000613884898E-2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>2754.7</v>
+        <v>2751.9</v>
       </c>
       <c r="B51">
-        <v>8</v>
+        <v>7.98</v>
       </c>
       <c r="C51">
-        <v>2753.8966500779279</v>
+        <v>2751.8070525481548</v>
       </c>
       <c r="D51">
-        <v>7.9959887259045779</v>
+        <v>7.9729233557172909</v>
       </c>
       <c r="E51">
-        <v>-0.80334992207190226</v>
+        <v>-9.2947451845247997E-2</v>
       </c>
       <c r="F51">
-        <v>-4.0112740954221238E-3</v>
+        <v>-7.0766442827094878E-3</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>2754.7</v>
+        <v>2751.9</v>
       </c>
       <c r="B52">
-        <v>10</v>
+        <v>9.98</v>
       </c>
       <c r="C52">
-        <v>2752.4472295270475</v>
+        <v>2751.8033761091988</v>
       </c>
       <c r="D52">
-        <v>10.022078147301324</v>
+        <v>9.9858978901034359</v>
       </c>
       <c r="E52">
-        <v>-2.2527704729523066</v>
+        <v>-9.6623890801311063E-2</v>
       </c>
       <c r="F52">
-        <v>2.2078147301323625E-2</v>
+        <v>5.8978901034354436E-3</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>2754.7</v>
+        <v>2751.9</v>
       </c>
       <c r="B53">
-        <v>12</v>
+        <v>11.95</v>
       </c>
       <c r="C53">
-        <v>2754.5265151350259</v>
+        <v>2751.1285149215332</v>
       </c>
       <c r="D53">
-        <v>12.017390197301328</v>
+        <v>11.985373132983874</v>
       </c>
       <c r="E53">
-        <v>-0.17348486497394333</v>
+        <v>-0.77148507846686698</v>
       </c>
       <c r="F53">
-        <v>1.7390197301327959E-2</v>
+        <v>3.5373132983874456E-2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>2754.7</v>
+        <v>2751.9</v>
       </c>
       <c r="B54">
-        <v>14.02</v>
+        <v>13.98</v>
       </c>
       <c r="C54">
-        <v>2755.589661735336</v>
+        <v>2751.3014290820961</v>
       </c>
       <c r="D54">
-        <v>14.039646035848371</v>
+        <v>13.99994221654487</v>
       </c>
       <c r="E54">
-        <v>0.88966173533617621</v>
+        <v>-0.59857091790399863</v>
       </c>
       <c r="F54">
-        <v>1.9646035848371213E-2</v>
+        <v>1.9942216544869495E-2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>2754.7</v>
+        <v>2751.9</v>
       </c>
       <c r="B55">
         <v>15.98</v>
       </c>
       <c r="C55">
-        <v>2756.2555949406346</v>
+        <v>2751.877316410269</v>
       </c>
       <c r="D55">
-        <v>16.022909676172738</v>
+        <v>15.989027585332781</v>
       </c>
       <c r="E55">
-        <v>1.5555949406348191</v>
+        <v>-2.2683589731059328E-2</v>
       </c>
       <c r="F55">
-        <v>4.2909676172737221E-2</v>
+        <v>9.0275853327810296E-3</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>2854.4</v>
+        <v>2851.6</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>2855.6385011355283</v>
+        <v>2850.6416374254586</v>
       </c>
       <c r="D56">
-        <v>-1.2936189396739736E-2</v>
+        <v>-6.3668080090320503E-2</v>
       </c>
       <c r="E56">
-        <v>1.2385011355281677</v>
+        <v>-0.95836257454129736</v>
       </c>
       <c r="F56">
-        <v>-1.2936189396739736E-2</v>
+        <v>-6.3668080090320503E-2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>2854.4</v>
+        <v>2851.6</v>
       </c>
       <c r="B57">
         <v>-16.07</v>
       </c>
       <c r="C57">
-        <v>2855.8617039536239</v>
+        <v>2852.675771134876</v>
       </c>
       <c r="D57">
-        <v>-15.885502641816279</v>
+        <v>-15.800939757577622</v>
       </c>
       <c r="E57">
-        <v>1.4617039536237826</v>
+        <v>1.0757711348760495</v>
       </c>
       <c r="F57">
-        <v>0.18449735818372126</v>
+        <v>0.26906024242237869</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>2854.4</v>
+        <v>2851.6</v>
       </c>
       <c r="B58">
-        <v>-13.98</v>
+        <v>-14</v>
       </c>
       <c r="C58">
-        <v>2854.6482535932832</v>
+        <v>2852.1824262744608</v>
       </c>
       <c r="D58">
-        <v>-13.788699459938465</v>
+        <v>-13.782164186995804</v>
       </c>
       <c r="E58">
-        <v>0.24825359328315244</v>
+        <v>0.58242627446088591</v>
       </c>
       <c r="F58">
-        <v>0.19130054006153507</v>
+        <v>0.21783581300419641</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>2854.4</v>
+        <v>2851.6</v>
       </c>
       <c r="B59">
-        <v>-11.95</v>
+        <v>-11.98</v>
       </c>
       <c r="C59">
-        <v>2853.2756336031334</v>
+        <v>2851.6033797794703</v>
       </c>
       <c r="D59">
-        <v>-11.850187422518951</v>
+        <v>-11.801175199535383</v>
       </c>
       <c r="E59">
-        <v>-1.1243663968666624</v>
+        <v>3.3797794703787076E-3</v>
       </c>
       <c r="F59">
-        <v>9.9812577481047882E-2</v>
+        <v>0.17882480046461779</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>2854.4</v>
+        <v>2851.6</v>
       </c>
       <c r="B60">
         <v>-9.9499999999999993</v>
       </c>
       <c r="C60">
-        <v>2853.6370067658872</v>
+        <v>2852.0093914966956</v>
       </c>
       <c r="D60">
-        <v>-9.877876527606551</v>
+        <v>-9.861297973942504</v>
       </c>
       <c r="E60">
-        <v>-0.76299323411285513</v>
+        <v>0.40939149669566177</v>
       </c>
       <c r="F60">
-        <v>7.2123472393448296E-2</v>
+        <v>8.8702026057495331E-2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>2854.4</v>
+        <v>2851.6</v>
       </c>
       <c r="B61">
-        <v>-7.95</v>
+        <v>-8</v>
       </c>
       <c r="C61">
-        <v>2854.7130556237316</v>
+        <v>2851.3000328481917</v>
       </c>
       <c r="D61">
-        <v>-7.9141901739162277</v>
+        <v>-7.9278024190032887</v>
       </c>
       <c r="E61">
-        <v>0.31305562373154316</v>
+        <v>-0.2999671518082323</v>
       </c>
       <c r="F61">
-        <v>3.5809826083772478E-2</v>
+        <v>7.2197580996711253E-2</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>2854.4</v>
+        <v>2851.6</v>
       </c>
       <c r="B62">
         <v>-5.95</v>
       </c>
       <c r="C62">
-        <v>2855.5415465066626</v>
+        <v>2851.7428509103911</v>
       </c>
       <c r="D62">
-        <v>-5.9565000671061901</v>
+        <v>-5.9351332371579755</v>
       </c>
       <c r="E62">
-        <v>1.1415465066625075</v>
+        <v>0.14285091039118925</v>
       </c>
       <c r="F62">
-        <v>-6.5000671061898885E-3</v>
+        <v>1.4866762842024706E-2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>2854.4</v>
+        <v>2851.6</v>
       </c>
       <c r="B63">
-        <v>-3.95</v>
+        <v>-4</v>
       </c>
       <c r="C63">
-        <v>2855.6099941613397</v>
+        <v>2851.2765644975125</v>
       </c>
       <c r="D63">
-        <v>-3.9890362536672521</v>
+        <v>-3.9892259949190545</v>
       </c>
       <c r="E63">
-        <v>1.2099941613396368</v>
+        <v>-0.32343550248742758</v>
       </c>
       <c r="F63">
-        <v>-3.9036253667251941E-2</v>
+        <v>1.0774005080945503E-2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>2854.4</v>
+        <v>2851.6</v>
       </c>
       <c r="B64">
-        <v>-1.98</v>
+        <v>-2</v>
       </c>
       <c r="C64">
-        <v>2855.1214261234527</v>
+        <v>2850.5506459020226</v>
       </c>
       <c r="D64">
-        <v>-2.0113262437594592</v>
+        <v>-2.0058825143986159</v>
       </c>
       <c r="E64">
-        <v>0.72142612345260204</v>
+        <v>-1.049354097977357</v>
       </c>
       <c r="F64">
-        <v>-3.1326243759459249E-2</v>
+        <v>-5.8825143986158679E-3</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>2854.4</v>
+        <v>2851.6</v>
       </c>
       <c r="B65">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="C65">
-        <v>2855.6055368475263</v>
+        <v>2850.3470811993011</v>
       </c>
       <c r="D65">
-        <v>-2.6958962100249299E-3</v>
+        <v>4.654327150290535E-3</v>
       </c>
       <c r="E65">
-        <v>1.2055368475262185</v>
+        <v>-1.2529188006988079</v>
       </c>
       <c r="F65">
-        <v>-5.2695896210024934E-2</v>
+        <v>-1.5345672849709465E-2</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>2854.4</v>
+        <v>2851.6</v>
       </c>
       <c r="B66">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="C66">
-        <v>2855.0053588691762</v>
+        <v>2853.1199285153216</v>
       </c>
       <c r="D66">
-        <v>1.9743931133872943</v>
+        <v>1.9579802266247996</v>
       </c>
       <c r="E66">
-        <v>0.60535886917614334</v>
+        <v>1.5199285153216806</v>
       </c>
       <c r="F66">
-        <v>-4.5606886612705733E-2</v>
+        <v>-2.2019773375200336E-2</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>2854.4</v>
+        <v>2851.6</v>
       </c>
       <c r="B67">
-        <v>4.0199999999999996</v>
+        <v>4</v>
       </c>
       <c r="C67">
-        <v>2855.5538981551099</v>
+        <v>2850.0095152737777</v>
       </c>
       <c r="D67">
-        <v>3.9769912925271171</v>
+        <v>3.9784568251026253</v>
       </c>
       <c r="E67">
-        <v>1.1538981551098004</v>
+        <v>-1.5904847262222574</v>
       </c>
       <c r="F67">
-        <v>-4.3008707472882435E-2</v>
+        <v>-2.1543174897374673E-2</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>2854.4</v>
+        <v>2851.6</v>
       </c>
       <c r="B68">
-        <v>6</v>
+        <v>5.98</v>
       </c>
       <c r="C68">
-        <v>2853.2497799723824</v>
+        <v>2852.076226836989</v>
       </c>
       <c r="D68">
-        <v>5.9706318706155734</v>
+        <v>5.9737414704178073</v>
       </c>
       <c r="E68">
-        <v>-1.1502200276177064</v>
+        <v>0.47622683698909896</v>
       </c>
       <c r="F68">
-        <v>-2.9368129384426567E-2</v>
+        <v>-6.2585295821930842E-3</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>2854.4</v>
+        <v>2851.6</v>
       </c>
       <c r="B69">
-        <v>8</v>
+        <v>7.98</v>
       </c>
       <c r="C69">
-        <v>2852.9735568808374</v>
+        <v>2851.9358428137816</v>
       </c>
       <c r="D69">
-        <v>7.9894707223928787</v>
+        <v>7.9871418202691284</v>
       </c>
       <c r="E69">
-        <v>-1.4264431191627409</v>
+        <v>0.33584281378170999</v>
       </c>
       <c r="F69">
-        <v>-1.0529277607121301E-2</v>
+        <v>7.1418202691280186E-3</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>2854.4</v>
+        <v>2851.6</v>
       </c>
       <c r="B70">
-        <v>10</v>
+        <v>9.98</v>
       </c>
       <c r="C70">
-        <v>2853.4105479763698</v>
+        <v>2850.7261707797238</v>
       </c>
       <c r="D70">
-        <v>10.011190402280596</v>
+        <v>9.9945367151680706</v>
       </c>
       <c r="E70">
-        <v>-0.98945202363029239</v>
+        <v>-0.87382922027609311</v>
       </c>
       <c r="F70">
-        <v>1.1190402280595535E-2</v>
+        <v>1.4536715168070202E-2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>2854.4</v>
+        <v>2851.6</v>
       </c>
       <c r="B71">
-        <v>12</v>
+        <v>11.95</v>
       </c>
       <c r="C71">
-        <v>2853.5213370638376</v>
+        <v>2851.2099528729582</v>
       </c>
       <c r="D71">
-        <v>12.025180052047372</v>
+        <v>11.995983483570674</v>
       </c>
       <c r="E71">
-        <v>-0.87866293616252733</v>
+        <v>-0.39004712704172562</v>
       </c>
       <c r="F71">
-        <v>2.5180052047371504E-2</v>
+        <v>4.5983483570674721E-2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>2854.4</v>
+        <v>2851.6</v>
       </c>
       <c r="B72">
-        <v>14</v>
+        <v>13.98</v>
       </c>
       <c r="C72">
-        <v>2853.7075229386828</v>
+        <v>2850.908910740724</v>
       </c>
       <c r="D72">
-        <v>14.01883248930128</v>
+        <v>14.008078139023732</v>
       </c>
       <c r="E72">
-        <v>-0.69247706131727682</v>
+        <v>-0.691089259275941</v>
       </c>
       <c r="F72">
-        <v>1.883248930128012E-2</v>
+        <v>2.8078139023731907E-2</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>2854.4</v>
+        <v>2851.6</v>
       </c>
       <c r="B73">
-        <v>16</v>
+        <v>15.95</v>
       </c>
       <c r="C73">
-        <v>2855.5616892333578</v>
+        <v>2851.0710635747146</v>
       </c>
       <c r="D73">
-        <v>16.019838138629218</v>
+        <v>16.003958817768886</v>
       </c>
       <c r="E73">
-        <v>1.1616892333577198</v>
+        <v>-0.52893642528533746</v>
       </c>
       <c r="F73">
-        <v>1.9838138629218349E-2</v>
+        <v>5.3958817768887002E-2</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>2954.1</v>
+        <v>2951.3</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>2955.5663739195775</v>
+        <v>2952.6761717043323</v>
       </c>
       <c r="D74">
-        <v>3.2954230076764003E-3</v>
+        <v>-6.0829983611578688E-2</v>
       </c>
       <c r="E74">
-        <v>1.4663739195775634</v>
+        <v>1.3761717043321369</v>
       </c>
       <c r="F74">
-        <v>3.2954230076764003E-3</v>
+        <v>-6.0829983611578688E-2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>2954.1</v>
+        <v>2951.3</v>
       </c>
       <c r="B75">
         <v>-16.07</v>
       </c>
       <c r="C75">
-        <v>2954.7218170164838</v>
+        <v>2951.0720574601501</v>
       </c>
       <c r="D75">
-        <v>-15.852153048330502</v>
+        <v>-15.77052556237811</v>
       </c>
       <c r="E75">
-        <v>0.62181701648387389</v>
+        <v>-0.22794253985011892</v>
       </c>
       <c r="F75">
-        <v>0.21784695166949852</v>
+        <v>0.29947443762189074</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>2954.1</v>
+        <v>2951.3</v>
       </c>
       <c r="B76">
-        <v>-13.98</v>
+        <v>-14</v>
       </c>
       <c r="C76">
-        <v>2953.0418722077338</v>
+        <v>2950.0302503275134</v>
       </c>
       <c r="D76">
-        <v>-13.784338017347487</v>
+        <v>-13.744474749414556</v>
       </c>
       <c r="E76">
-        <v>-1.0581277922660774</v>
+        <v>-1.269749672486796</v>
       </c>
       <c r="F76">
-        <v>0.19566198265251344</v>
+        <v>0.2555252505854444</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>2954.1</v>
+        <v>2951.3</v>
       </c>
       <c r="B77">
-        <v>-11.95</v>
+        <v>-11.98</v>
       </c>
       <c r="C77">
-        <v>2952.3209445772118</v>
+        <v>2948.987995177753</v>
       </c>
       <c r="D77">
-        <v>-11.803092553888412</v>
+        <v>-11.7901996470351</v>
       </c>
       <c r="E77">
-        <v>-1.779055422788133</v>
+        <v>-2.3120048222472178</v>
       </c>
       <c r="F77">
-        <v>0.14690744611158735</v>
+        <v>0.18980035296489994</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>2954.1</v>
+        <v>2951.3</v>
       </c>
       <c r="B78">
         <v>-9.9499999999999993</v>
       </c>
       <c r="C78">
-        <v>2952.3011555875009</v>
+        <v>2949.4027519054544</v>
       </c>
       <c r="D78">
-        <v>-9.8368538579176068</v>
+        <v>-9.838003209139762</v>
       </c>
       <c r="E78">
-        <v>-1.7988444124989655</v>
+        <v>-1.8972480945458301</v>
       </c>
       <c r="F78">
-        <v>0.11314614208239249</v>
+        <v>0.11199679086023728</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>2954.1</v>
+        <v>2951.3</v>
       </c>
       <c r="B79">
-        <v>-7.95</v>
+        <v>-8</v>
       </c>
       <c r="C79">
-        <v>2953.2556353796799</v>
+        <v>2949.958127696862</v>
       </c>
       <c r="D79">
-        <v>-7.8962690173156194</v>
+        <v>-7.910040543418317</v>
       </c>
       <c r="E79">
-        <v>-0.84436462031999326</v>
+        <v>-1.3418723031381887</v>
       </c>
       <c r="F79">
-        <v>5.3730982684380812E-2</v>
+        <v>8.9959456581683028E-2</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>2954.1</v>
+        <v>2951.3</v>
       </c>
       <c r="B80">
         <v>-5.95</v>
       </c>
       <c r="C80">
-        <v>2954.7341889123431</v>
+        <v>2950.9115391676164</v>
       </c>
       <c r="D80">
-        <v>-5.9366252601687659</v>
+        <v>-5.920173429216347</v>
       </c>
       <c r="E80">
-        <v>0.63418891234323382</v>
+        <v>-0.38846083238377105</v>
       </c>
       <c r="F80">
-        <v>1.3374739831234272E-2</v>
+        <v>2.9826570783653139E-2</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>2954.1</v>
+        <v>2951.3</v>
       </c>
       <c r="B81">
-        <v>-3.95</v>
+        <v>-4</v>
       </c>
       <c r="C81">
-        <v>2954.3400162594507</v>
+        <v>2950.2116452551477</v>
       </c>
       <c r="D81">
-        <v>-3.9622953141998716</v>
+        <v>-3.9775923749776161</v>
       </c>
       <c r="E81">
-        <v>0.24001625945084015</v>
+        <v>-1.0883547448524951</v>
       </c>
       <c r="F81">
-        <v>-1.2295314199871399E-2</v>
+        <v>2.2407625022383915E-2</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>2954.1</v>
+        <v>2951.3</v>
       </c>
       <c r="B82">
-        <v>-1.98</v>
+        <v>-2</v>
       </c>
       <c r="C82">
-        <v>2954.6601102501877</v>
+        <v>2952.3165168841069</v>
       </c>
       <c r="D82">
-        <v>-1.9887861434159826</v>
+        <v>-2.0128685244226254</v>
       </c>
       <c r="E82">
-        <v>0.56011025018779037</v>
+        <v>1.0165168841067498</v>
       </c>
       <c r="F82">
-        <v>-8.7861434159826057E-3</v>
+        <v>-1.2868524422625427E-2</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>2954.1</v>
+        <v>2951.3</v>
       </c>
       <c r="B83">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="C83">
-        <v>2955.1417192629701</v>
+        <v>2953.0398500208562</v>
       </c>
       <c r="D83">
-        <v>8.1460388207641177E-3</v>
+        <v>1.03344506914271E-2</v>
       </c>
       <c r="E83">
-        <v>1.0417192629702186</v>
+        <v>1.7398500208560108</v>
       </c>
       <c r="F83">
-        <v>-4.1853961179235885E-2</v>
+        <v>-9.6655493085729006E-3</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>2954.1</v>
+        <v>2951.3</v>
       </c>
       <c r="B84">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="C84">
-        <v>2955.8544313606071</v>
+        <v>2951.4554764397167</v>
       </c>
       <c r="D84">
-        <v>1.9762301045520849</v>
+        <v>1.9579954328477696</v>
       </c>
       <c r="E84">
-        <v>1.7544313606072137</v>
+        <v>0.1554764397164945</v>
       </c>
       <c r="F84">
-        <v>-4.3769895447915097E-2</v>
+        <v>-2.2004567152230425E-2</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>2954.1</v>
+        <v>2951.3</v>
       </c>
       <c r="B85">
-        <v>4.0199999999999996</v>
+        <v>4</v>
       </c>
       <c r="C85">
-        <v>2954.4232966600957</v>
+        <v>2952.8732166054583</v>
       </c>
       <c r="D85">
-        <v>3.9867456709629541</v>
+        <v>3.9805809546437207</v>
       </c>
       <c r="E85">
-        <v>0.3232966600958207</v>
+        <v>1.5732166054581285</v>
       </c>
       <c r="F85">
-        <v>-3.3254329037045505E-2</v>
+        <v>-1.9419045356279252E-2</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>2954.1</v>
+        <v>2951.3</v>
       </c>
       <c r="B86">
-        <v>6</v>
+        <v>5.98</v>
       </c>
       <c r="C86">
-        <v>2954.5872593854779</v>
+        <v>2951.7336349484985</v>
       </c>
       <c r="D86">
-        <v>5.9791745743362794</v>
+        <v>5.9688849570872025</v>
       </c>
       <c r="E86">
-        <v>0.48725938547795522</v>
+        <v>0.4336349484983657</v>
       </c>
       <c r="F86">
-        <v>-2.0825425663720587E-2</v>
+        <v>-1.1115042912797968E-2</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>2954.1</v>
+        <v>2951.3</v>
       </c>
       <c r="B87">
-        <v>8</v>
+        <v>7.98</v>
       </c>
       <c r="C87">
-        <v>2954.6988398860003</v>
+        <v>2950.9915720813055</v>
       </c>
       <c r="D87">
-        <v>7.9928344031226812</v>
+        <v>7.9819023102603737</v>
       </c>
       <c r="E87">
-        <v>0.59883988600040539</v>
+        <v>-0.30842791869463326</v>
       </c>
       <c r="F87">
-        <v>-7.1655968773187695E-3</v>
+        <v>1.9023102603732411E-3</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>2954.1</v>
+        <v>2951.3</v>
       </c>
       <c r="B88">
-        <v>10</v>
+        <v>9.98</v>
       </c>
       <c r="C88">
-        <v>2950.9612421003412</v>
+        <v>2950.7847572238225</v>
       </c>
       <c r="D88">
-        <v>10.009382742020705</v>
+        <v>9.9847305699937792</v>
       </c>
       <c r="E88">
-        <v>-3.1387578996586853</v>
+        <v>-0.51524277617772896</v>
       </c>
       <c r="F88">
-        <v>9.3827420207048817E-3</v>
+        <v>4.7305699937787438E-3</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>2954.1</v>
+        <v>2951.3</v>
       </c>
       <c r="B89">
-        <v>12</v>
+        <v>11.95</v>
       </c>
       <c r="C89">
-        <v>2953.1331309853181</v>
+        <v>2950.6575604453078</v>
       </c>
       <c r="D89">
-        <v>12.016904621319627</v>
+        <v>11.990639420545454</v>
       </c>
       <c r="E89">
-        <v>-0.96686901468183351</v>
+        <v>-0.64243955469237335</v>
       </c>
       <c r="F89">
-        <v>1.6904621319627111E-2</v>
+        <v>4.0639420545454996E-2</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>2954.1</v>
+        <v>2951.3</v>
       </c>
       <c r="B90">
-        <v>14.02</v>
+        <v>13.98</v>
       </c>
       <c r="C90">
-        <v>2953.224068511413</v>
+        <v>2950.816186798073</v>
       </c>
       <c r="D90">
-        <v>14.009328618018225</v>
+        <v>14.002028403641864</v>
       </c>
       <c r="E90">
-        <v>-0.87593148858695713</v>
+        <v>-0.48381320192720523</v>
       </c>
       <c r="F90">
-        <v>-1.067138198177453E-2</v>
+        <v>2.2028403641863648E-2</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>2954.1</v>
+        <v>2951.3</v>
       </c>
       <c r="B91">
-        <v>15.98</v>
+        <v>15.95</v>
       </c>
       <c r="C91">
-        <v>2954.9697252292535</v>
+        <v>2950.2620679296219</v>
       </c>
       <c r="D91">
-        <v>15.960678833646329</v>
+        <v>15.990605648605051</v>
       </c>
       <c r="E91">
-        <v>0.86972522925361773</v>
+        <v>-1.0379320703782469</v>
       </c>
       <c r="F91">
-        <v>-1.932116635367187E-2</v>
+        <v>4.060564860505167E-2</v>
       </c>
     </row>
   </sheetData>

--- a/cam4_validation_result.xlsx
+++ b/cam4_validation_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voies\Desktop\GodEyesProject\CalibPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD768F44-88EB-45F6-888E-0CEFE4735C5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0080154-3697-4BD1-939A-B60DAC4086F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15257" yWindow="3086" windowWidth="16192" windowHeight="13225" xr2:uid="{EDF124C2-77FF-41DF-A49C-75F1947FF335}"/>
+    <workbookView xWindow="16774" yWindow="4500" windowWidth="16192" windowHeight="13226" xr2:uid="{EDF124C2-77FF-41DF-A49C-75F1947FF335}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -189,220 +189,220 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>-0.39035748097057876</c:v>
+                  <c:v>2.1013953035530903</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5895500850851931</c:v>
+                  <c:v>4.3258010547046979</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1195477286905771</c:v>
+                  <c:v>3.7203990793723278</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.74135126019382369</c:v>
+                  <c:v>3.17728496628024</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.8433479949380853E-2</c:v>
+                  <c:v>2.5323267437520371</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.89805712603447319</c:v>
+                  <c:v>2.7970307480741212</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.39981295130337458</c:v>
+                  <c:v>2.2174181063796823</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1732364923991554</c:v>
+                  <c:v>2.8975006187711188</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.33899600461018053</c:v>
+                  <c:v>2.6027900086451154</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.7356871476536071</c:v>
+                  <c:v>1.8371526425626143</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.84776976507555446</c:v>
+                  <c:v>3.2365701992957838</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.51608936526326943</c:v>
+                  <c:v>2.5660577239950726</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.46889568110509572</c:v>
+                  <c:v>2.7314182389955022</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.19055032642518199</c:v>
+                  <c:v>2.7137223733680003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.5944705719739432</c:v>
+                  <c:v>2.3851543846103596</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.64849640614602322</c:v>
+                  <c:v>3.3161981853540965</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.59288075730501077</c:v>
+                  <c:v>1.9119431427216114</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.56780793207735769</c:v>
+                  <c:v>4.0431785198611578</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-6.8463525354218291E-2</c:v>
+                  <c:v>2.177979353579758</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.1733887661957851</c:v>
+                  <c:v>4.6145478287239712</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.5496689595752287</c:v>
+                  <c:v>3.5302101587471952</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.55976403535942154</c:v>
+                  <c:v>3.0287850698823604</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.35899648422082464</c:v>
+                  <c:v>3.1427955409826609</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.40771702268102672</c:v>
+                  <c:v>2.9420465990001503</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.53773540059546576</c:v>
+                  <c:v>3.022384514087662</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.31025320240723886</c:v>
+                  <c:v>2.475561495924012</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.10315382399176087</c:v>
+                  <c:v>2.4329663162970974</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.31375314071647153</c:v>
+                  <c:v>2.9009539885087179</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.4703865503038287</c:v>
+                  <c:v>3.3425247098384716</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.48727367805395261</c:v>
+                  <c:v>4.1635191921618571</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.70222804783770698</c:v>
+                  <c:v>4.2024991078737912</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.19803188301057162</c:v>
+                  <c:v>3.1985714320353509</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.22501786676184565</c:v>
+                  <c:v>2.8116681417836844</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.61790936875922853</c:v>
+                  <c:v>2.3660183401193535</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-2.1093514558742754E-2</c:v>
+                  <c:v>3.3908802783730607</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.97821329414591673</c:v>
+                  <c:v>3.935741943085759</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.6716491131919611</c:v>
+                  <c:v>3.0314242604822539</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.8476192786447427</c:v>
+                  <c:v>3.7124479012568372</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.2594112494498404</c:v>
+                  <c:v>2.7483425043756142</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.45821355259067786</c:v>
+                  <c:v>2.7581695993953872</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.0427446248882006</c:v>
+                  <c:v>2.7406718151337373</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.3362696838521515</c:v>
+                  <c:v>2.1436046819217154</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.6955977416273527E-2</c:v>
+                  <c:v>2.2933289822967708</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.7029485720486264E-2</c:v>
+                  <c:v>3.6012505595117545</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.91177547413462889</c:v>
+                  <c:v>3.9494503620994692</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.7322784508655786</c:v>
+                  <c:v>3.1056645619514711</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.26237218742926416</c:v>
+                  <c:v>3.7761952955743254</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.4095364367353795</c:v>
+                  <c:v>3.3415192752891016</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.79475175545485399</c:v>
+                  <c:v>3.4974647897397517</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-9.2947451845247997E-2</c:v>
+                  <c:v>3.658889901738803</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-9.6623890801311063E-2</c:v>
+                  <c:v>1.719376920162631</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-0.77148507846686698</c:v>
+                  <c:v>2.4220783290893451</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-0.59857091790399863</c:v>
+                  <c:v>1.7405600622960264</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-2.2683589731059328E-2</c:v>
+                  <c:v>2.1671759119003582</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-0.95836257454129736</c:v>
+                  <c:v>3.5728566801972192</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.0757711348760495</c:v>
+                  <c:v>1.9198045439529778</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.58242627446088591</c:v>
+                  <c:v>2.563986144026785</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.3797794703787076E-3</c:v>
+                  <c:v>2.3510194271366345</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.40939149669566177</c:v>
+                  <c:v>2.1128861424963361</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-0.2999671518082323</c:v>
+                  <c:v>2.0323585503219874</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.14285091039118925</c:v>
+                  <c:v>3.8052334395611069</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.32343550248742758</c:v>
+                  <c:v>1.8078902375000325</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-1.049354097977357</c:v>
+                  <c:v>2.300955350820459</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-1.2529188006988079</c:v>
+                  <c:v>3.6351594547081731</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.5199285153216806</c:v>
+                  <c:v>3.4561132448893659</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-1.5904847262222574</c:v>
+                  <c:v>3.6048427170353534</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.47622683698909896</c:v>
+                  <c:v>2.9752220586869953</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.33584281378170999</c:v>
+                  <c:v>3.1382320666307351</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-0.87382922027609311</c:v>
+                  <c:v>1.3565004210108782</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-0.39004712704172562</c:v>
+                  <c:v>2.2342081867059278</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-0.691089259275941</c:v>
+                  <c:v>1.0517218532072548</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-0.52893642528533746</c:v>
+                  <c:v>2.4102878514686381</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>1.3761717043321369</c:v>
@@ -2242,1472 +2242,1472 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>2552.5</v>
+        <v>2550.1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2552.1096425190294</v>
+        <v>2552.201395303553</v>
       </c>
       <c r="D2">
-        <v>-0.11844300864129123</v>
+        <v>-0.15801472976170705</v>
       </c>
       <c r="E2">
-        <v>-0.39035748097057876</v>
+        <v>2.1013953035530903</v>
       </c>
       <c r="F2">
-        <v>-0.11844300864129123</v>
+        <v>-0.15801472976170705</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
       </c>
       <c r="I2">
-        <v>0.72922839008730178</v>
+        <v>2.8823595852204686</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2552.5</v>
+        <v>2550.1</v>
       </c>
       <c r="B3">
-        <v>-16.079999999999998</v>
+        <v>-15.9</v>
       </c>
       <c r="C3">
-        <v>2554.0895500850852</v>
+        <v>2554.4258010547046</v>
       </c>
       <c r="D3">
-        <v>-15.975541492221662</v>
+        <v>-16.402858589045191</v>
       </c>
       <c r="E3">
-        <v>1.5895500850851931</v>
+        <v>4.3258010547046979</v>
       </c>
       <c r="F3">
-        <v>0.10445850777833598</v>
+        <v>-0.5028585890451911</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
       </c>
       <c r="I3">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>2552.5</v>
+        <v>2550.1</v>
       </c>
       <c r="B4">
-        <v>-14</v>
+        <v>-14.1</v>
       </c>
       <c r="C4">
-        <v>2553.6195477286906</v>
+        <v>2553.8203990793722</v>
       </c>
       <c r="D4">
-        <v>-13.919663216829372</v>
+        <v>-14.52167833468947</v>
       </c>
       <c r="E4">
-        <v>1.1195477286905771</v>
+        <v>3.7203990793723278</v>
       </c>
       <c r="F4">
-        <v>8.0336783170627868E-2</v>
+        <v>-0.4216783346894708</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
       </c>
       <c r="I4">
-        <v>88</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>2552.5</v>
+        <v>2550.1</v>
       </c>
       <c r="B5">
-        <v>-11.95</v>
+        <v>-12.1</v>
       </c>
       <c r="C5">
-        <v>2553.2413512601938</v>
+        <v>2553.2772849662801</v>
       </c>
       <c r="D5">
-        <v>-11.931780825283218</v>
+        <v>-12.460010662084875</v>
       </c>
       <c r="E5">
-        <v>0.74135126019382369</v>
+        <v>3.17728496628024</v>
       </c>
       <c r="F5">
-        <v>1.8219174716781694E-2</v>
+        <v>-0.36001066208487487</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
       </c>
       <c r="I5">
-        <v>0.97777777777777775</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>2552.5</v>
+        <v>2550.1</v>
       </c>
       <c r="B6">
-        <v>-9.98</v>
+        <v>-10.07</v>
       </c>
       <c r="C6">
-        <v>2552.4515665200506</v>
+        <v>2552.6323267437519</v>
       </c>
       <c r="D6">
-        <v>-9.9898231895398393</v>
+        <v>-10.429603382825933</v>
       </c>
       <c r="E6">
-        <v>-4.8433479949380853E-2</v>
+        <v>2.5323267437520371</v>
       </c>
       <c r="F6">
-        <v>-9.8231895398388502E-3</v>
+        <v>-0.35960338282593263</v>
       </c>
       <c r="H6" t="s">
         <v>10</v>
       </c>
       <c r="I6">
-        <v>1.7398500208560108</v>
+        <v>4.1635191921618571</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>2552.5</v>
+        <v>2550.1</v>
       </c>
       <c r="B7">
-        <v>-7.98</v>
+        <v>-8.1</v>
       </c>
       <c r="C7">
-        <v>2551.6019428739655</v>
+        <v>2552.897030748074</v>
       </c>
       <c r="D7">
-        <v>-8.0274888326656928</v>
+        <v>-8.4102003297172008</v>
       </c>
       <c r="E7">
-        <v>-0.89805712603447319</v>
+        <v>2.7970307480741212</v>
       </c>
       <c r="F7">
-        <v>-4.7488832665692371E-2</v>
+        <v>-0.31020032971720113</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>2552.5</v>
+        <v>2550.1</v>
       </c>
       <c r="B8">
-        <v>-5.98</v>
+        <v>-6.1</v>
       </c>
       <c r="C8">
-        <v>2552.1001870486966</v>
+        <v>2552.3174181063796</v>
       </c>
       <c r="D8">
-        <v>-6.0309263826605966</v>
+        <v>-6.3804449286131009</v>
       </c>
       <c r="E8">
-        <v>-0.39981295130337458</v>
+        <v>2.2174181063796823</v>
       </c>
       <c r="F8">
-        <v>-5.0926382660596126E-2</v>
+        <v>-0.28044492861310122</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>2552.5</v>
+        <v>2550.1</v>
       </c>
       <c r="B9">
-        <v>-3.98</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="C9">
-        <v>2552.6732364923992</v>
+        <v>2552.997500618771</v>
       </c>
       <c r="D9">
-        <v>-4.0643885701133202</v>
+        <v>-4.3226754842111852</v>
       </c>
       <c r="E9">
-        <v>0.1732364923991554</v>
+        <v>2.8975006187711188</v>
       </c>
       <c r="F9">
-        <v>-8.4388570113320238E-2</v>
+        <v>-0.22267548421118555</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>2552.5</v>
+        <v>2550.1</v>
       </c>
       <c r="B10">
-        <v>-2</v>
+        <v>-2.1</v>
       </c>
       <c r="C10">
-        <v>2552.1610039953898</v>
+        <v>2552.702790008645</v>
       </c>
       <c r="D10">
-        <v>-2.0989380113895408</v>
+        <v>-2.2973027392519256</v>
       </c>
       <c r="E10">
-        <v>-0.33899600461018053</v>
+        <v>2.6027900086451154</v>
       </c>
       <c r="F10">
-        <v>-9.8938011389540836E-2</v>
+        <v>-0.19730273925192554</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>2552.5</v>
+        <v>2550.1</v>
       </c>
       <c r="B11">
-        <v>0.02</v>
+        <v>-0.1</v>
       </c>
       <c r="C11">
-        <v>2551.7643128523464</v>
+        <v>2551.9371526425625</v>
       </c>
       <c r="D11">
-        <v>-5.0219022633806815E-2</v>
+        <v>-0.23803430886600349</v>
       </c>
       <c r="E11">
-        <v>-0.7356871476536071</v>
+        <v>1.8371526425626143</v>
       </c>
       <c r="F11">
-        <v>-7.0219022633806819E-2</v>
+        <v>-0.13803430886600349</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>2552.5</v>
+        <v>2550.1</v>
       </c>
       <c r="B12">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="C12">
-        <v>2551.6522302349244</v>
+        <v>2553.3365701992957</v>
       </c>
       <c r="D12">
-        <v>1.9082475177637055</v>
+        <v>1.7937052730534786</v>
       </c>
       <c r="E12">
-        <v>-0.84776976507555446</v>
+        <v>3.2365701992957838</v>
       </c>
       <c r="F12">
-        <v>-6.1752482236294481E-2</v>
+        <v>-0.10629472694652131</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>2552.5</v>
+        <v>2550.1</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="C13">
-        <v>2551.9839106347367</v>
+        <v>2552.666057723995</v>
       </c>
       <c r="D13">
-        <v>3.9341604463831752</v>
+        <v>3.8078493617055642</v>
       </c>
       <c r="E13">
-        <v>-0.51608936526326943</v>
+        <v>2.5660577239950726</v>
       </c>
       <c r="F13">
-        <v>-6.5839553616824809E-2</v>
+        <v>-9.2150638294435705E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>2552.5</v>
+        <v>2550.1</v>
       </c>
       <c r="B14">
-        <v>5.97</v>
+        <v>5.9</v>
       </c>
       <c r="C14">
-        <v>2552.0311043188949</v>
+        <v>2552.8314182389954</v>
       </c>
       <c r="D14">
-        <v>5.9290921366819713</v>
+        <v>5.8068791915802995</v>
       </c>
       <c r="E14">
-        <v>-0.46889568110509572</v>
+        <v>2.7314182389955022</v>
       </c>
       <c r="F14">
-        <v>-4.0907863318028426E-2</v>
+        <v>-9.3120808419700829E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>2552.5</v>
+        <v>2550.1</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>7.95</v>
       </c>
       <c r="C15">
-        <v>2552.6905503264252</v>
+        <v>2552.8137223733679</v>
       </c>
       <c r="D15">
-        <v>7.9650821768797782</v>
+        <v>7.8096745073242539</v>
       </c>
       <c r="E15">
-        <v>0.19055032642518199</v>
+        <v>2.7137223733680003</v>
       </c>
       <c r="F15">
-        <v>-3.4917823120221847E-2</v>
+        <v>-0.14032549267574623</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>2552.5</v>
+        <v>2550.1</v>
       </c>
       <c r="B16">
-        <v>9.9499999999999993</v>
+        <v>9.9</v>
       </c>
       <c r="C16">
-        <v>2550.9055294280261</v>
+        <v>2552.4851543846103</v>
       </c>
       <c r="D16">
-        <v>9.9434151633119381</v>
+        <v>9.7134540304735566</v>
       </c>
       <c r="E16">
-        <v>-1.5944705719739432</v>
+        <v>2.3851543846103596</v>
       </c>
       <c r="F16">
-        <v>-6.5848366880612019E-3</v>
+        <v>-0.18654596952644376</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>2552.5</v>
+        <v>2550.1</v>
       </c>
       <c r="B17">
-        <v>11.97</v>
+        <v>11.95</v>
       </c>
       <c r="C17">
-        <v>2551.851503593854</v>
+        <v>2553.416198185354</v>
       </c>
       <c r="D17">
-        <v>11.98313118037016</v>
+        <v>11.659275421781748</v>
       </c>
       <c r="E17">
-        <v>-0.64849640614602322</v>
+        <v>3.3161981853540965</v>
       </c>
       <c r="F17">
-        <v>1.3131180370159257E-2</v>
+        <v>-0.29072457821825104</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>2552.5</v>
+        <v>2550.1</v>
       </c>
       <c r="B18">
-        <v>13.97</v>
+        <v>13.95</v>
       </c>
       <c r="C18">
-        <v>2553.092880757305</v>
+        <v>2552.0119431427215</v>
       </c>
       <c r="D18">
-        <v>13.991007326222292</v>
+        <v>13.498473123628457</v>
       </c>
       <c r="E18">
-        <v>0.59288075730501077</v>
+        <v>1.9119431427216114</v>
       </c>
       <c r="F18">
-        <v>2.1007326222290956E-2</v>
+        <v>-0.45152687637154187</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>2552.5</v>
+        <v>2550.1</v>
       </c>
       <c r="B19">
         <v>15.95</v>
       </c>
       <c r="C19">
-        <v>2553.0678079320774</v>
+        <v>2554.1431785198611</v>
       </c>
       <c r="D19">
-        <v>15.984692592940341</v>
+        <v>15.317518237757579</v>
       </c>
       <c r="E19">
-        <v>0.56780793207735769</v>
+        <v>4.0431785198611578</v>
       </c>
       <c r="F19">
-        <v>3.4692592940341882E-2</v>
+        <v>-0.63248176224242059</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>2652.2</v>
+        <v>2649.8</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2652.1315364746456</v>
+        <v>2651.9779793535799</v>
       </c>
       <c r="D20">
-        <v>-9.0454993415016602E-2</v>
+        <v>-1.241982224017381E-2</v>
       </c>
       <c r="E20">
-        <v>-6.8463525354218291E-2</v>
+        <v>2.177979353579758</v>
       </c>
       <c r="F20">
-        <v>-9.0454993415016602E-2</v>
+        <v>-1.241982224017381E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>2652.2</v>
+        <v>2649.8</v>
       </c>
       <c r="B21">
-        <v>-16.079999999999998</v>
+        <v>-15.9</v>
       </c>
       <c r="C21">
-        <v>2654.3733887661956</v>
+        <v>2654.4145478287242</v>
       </c>
       <c r="D21">
-        <v>-15.886584021635361</v>
+        <v>-16.02291479125757</v>
       </c>
       <c r="E21">
-        <v>2.1733887661957851</v>
+        <v>4.6145478287239712</v>
       </c>
       <c r="F21">
-        <v>0.1934159783646372</v>
+        <v>-0.12291479125756943</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>2652.2</v>
+        <v>2649.8</v>
       </c>
       <c r="B22">
-        <v>-13.98</v>
+        <v>-14.1</v>
       </c>
       <c r="C22">
-        <v>2653.749668959575</v>
+        <v>2653.3302101587474</v>
       </c>
       <c r="D22">
-        <v>-13.838937397286227</v>
+        <v>-14.204243331114434</v>
       </c>
       <c r="E22">
-        <v>1.5496689595752287</v>
+        <v>3.5302101587471952</v>
       </c>
       <c r="F22">
-        <v>0.1410626027137738</v>
+        <v>-0.10424333111443396</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>2652.2</v>
+        <v>2649.8</v>
       </c>
       <c r="B23">
-        <v>-11.98</v>
+        <v>-12.1</v>
       </c>
       <c r="C23">
-        <v>2652.7597640353592</v>
+        <v>2652.8287850698825</v>
       </c>
       <c r="D23">
-        <v>-11.905519743917752</v>
+        <v>-12.189732629205075</v>
       </c>
       <c r="E23">
-        <v>0.55976403535942154</v>
+        <v>3.0287850698823604</v>
       </c>
       <c r="F23">
-        <v>7.4480256082248175E-2</v>
+        <v>-8.9732629205075298E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>2652.2</v>
+        <v>2649.8</v>
       </c>
       <c r="B24">
-        <v>-9.98</v>
+        <v>-10.1</v>
       </c>
       <c r="C24">
-        <v>2652.5589964842206</v>
+        <v>2652.9427955409828</v>
       </c>
       <c r="D24">
-        <v>-9.9493937696613397</v>
+        <v>-10.177573192987076</v>
       </c>
       <c r="E24">
-        <v>0.35899648422082464</v>
+        <v>3.1427955409826609</v>
       </c>
       <c r="F24">
-        <v>3.0606230338660723E-2</v>
+        <v>-7.7573192987076212E-2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>2652.2</v>
+        <v>2649.8</v>
       </c>
       <c r="B25">
-        <v>-7.98</v>
+        <v>-8.1</v>
       </c>
       <c r="C25">
-        <v>2652.6077170226808</v>
+        <v>2652.7420465990003</v>
       </c>
       <c r="D25">
-        <v>-7.9690213138953157</v>
+        <v>-8.1707070549969281</v>
       </c>
       <c r="E25">
-        <v>0.40771702268102672</v>
+        <v>2.9420465990001503</v>
       </c>
       <c r="F25">
-        <v>1.0978686104684776E-2</v>
+        <v>-7.070705499692842E-2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>2652.2</v>
+        <v>2649.8</v>
       </c>
       <c r="B26">
-        <v>-5.98</v>
+        <v>-6.1</v>
       </c>
       <c r="C26">
-        <v>2652.7377354005953</v>
+        <v>2652.8223845140878</v>
       </c>
       <c r="D26">
-        <v>-5.9880046948145136</v>
+        <v>-6.1523209086214345</v>
       </c>
       <c r="E26">
-        <v>0.53773540059546576</v>
+        <v>3.022384514087662</v>
       </c>
       <c r="F26">
-        <v>-8.004694814513158E-3</v>
+        <v>-5.2320908621434903E-2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>2652.2</v>
+        <v>2649.8</v>
       </c>
       <c r="B27">
-        <v>-3.98</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="C27">
-        <v>2652.5102532024071</v>
+        <v>2652.2755614959242</v>
       </c>
       <c r="D27">
-        <v>-4.0158745351489102</v>
+        <v>-4.131251712375251</v>
       </c>
       <c r="E27">
-        <v>0.31025320240723886</v>
+        <v>2.475561495924012</v>
       </c>
       <c r="F27">
-        <v>-3.5874535148910258E-2</v>
+        <v>-3.1251712375251373E-2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>2652.2</v>
+        <v>2649.8</v>
       </c>
       <c r="B28">
-        <v>-2</v>
+        <v>-2.1</v>
       </c>
       <c r="C28">
-        <v>2652.0968461760081</v>
+        <v>2652.2329663162973</v>
       </c>
       <c r="D28">
-        <v>-2.0553886654204474</v>
+        <v>-2.098963343843042</v>
       </c>
       <c r="E28">
-        <v>-0.10315382399176087</v>
+        <v>2.4329663162970974</v>
       </c>
       <c r="F28">
-        <v>-5.5388665420447403E-2</v>
+        <v>1.0366561569581378E-3</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>2652.2</v>
+        <v>2649.8</v>
       </c>
       <c r="B29">
-        <v>0.02</v>
+        <v>-0.1</v>
       </c>
       <c r="C29">
-        <v>2651.8862468592833</v>
+        <v>2652.7009539885089</v>
       </c>
       <c r="D29">
-        <v>-3.1789874420292387E-2</v>
+        <v>-7.5133726459845909E-2</v>
       </c>
       <c r="E29">
-        <v>-0.31375314071647153</v>
+        <v>2.9009539885087179</v>
       </c>
       <c r="F29">
-        <v>-5.1789874420292384E-2</v>
+        <v>2.4866273540154096E-2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>2652.2</v>
+        <v>2649.8</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="C30">
-        <v>2651.729613449696</v>
+        <v>2653.1425247098387</v>
       </c>
       <c r="D30">
-        <v>1.9373774742359695</v>
+        <v>1.9617234383820337</v>
       </c>
       <c r="E30">
-        <v>-0.4703865503038287</v>
+        <v>3.3425247098384716</v>
       </c>
       <c r="F30">
-        <v>-6.262252576403049E-2</v>
+        <v>6.1723438382033757E-2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>2652.2</v>
+        <v>2649.8</v>
       </c>
       <c r="B31">
-        <v>3.98</v>
+        <v>3.9</v>
       </c>
       <c r="C31">
-        <v>2651.7127263219459</v>
+        <v>2653.963519192162</v>
       </c>
       <c r="D31">
-        <v>3.9385252114749982</v>
+        <v>3.9938194601410926</v>
       </c>
       <c r="E31">
-        <v>-0.48727367805395261</v>
+        <v>4.1635191921618571</v>
       </c>
       <c r="F31">
-        <v>-4.1474788525001749E-2</v>
+        <v>9.3819460141092659E-2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>2652.2</v>
+        <v>2649.8</v>
       </c>
       <c r="B32">
-        <v>5.98</v>
+        <v>5.9</v>
       </c>
       <c r="C32">
-        <v>2651.4977719521621</v>
+        <v>2654.002499107874</v>
       </c>
       <c r="D32">
-        <v>5.9444318922936361</v>
+        <v>5.9999212147426828</v>
       </c>
       <c r="E32">
-        <v>-0.70222804783770698</v>
+        <v>4.2024991078737912</v>
       </c>
       <c r="F32">
-        <v>-3.5568107706364316E-2</v>
+        <v>9.9921214742682452E-2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>2652.2</v>
+        <v>2649.8</v>
       </c>
       <c r="B33">
-        <v>7.98</v>
+        <v>7.93</v>
       </c>
       <c r="C33">
-        <v>2652.3980318830104</v>
+        <v>2652.9985714320355</v>
       </c>
       <c r="D33">
-        <v>7.9809451891306562</v>
+        <v>8.0114490098683344</v>
       </c>
       <c r="E33">
-        <v>0.19803188301057162</v>
+        <v>3.1985714320353509</v>
       </c>
       <c r="F33">
-        <v>9.4518913065577692E-4</v>
+        <v>8.1449009868334699E-2</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>2652.2</v>
+        <v>2649.8</v>
       </c>
       <c r="B34">
-        <v>9.98</v>
+        <v>9.93</v>
       </c>
       <c r="C34">
-        <v>2652.4250178667617</v>
+        <v>2652.6116681417839</v>
       </c>
       <c r="D34">
-        <v>9.9867583382130469</v>
+        <v>9.9503294476201667</v>
       </c>
       <c r="E34">
-        <v>0.22501786676184565</v>
+        <v>2.8116681417836844</v>
       </c>
       <c r="F34">
-        <v>6.7583382130464997E-3</v>
+        <v>2.0329447620166974E-2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>2652.2</v>
+        <v>2649.8</v>
       </c>
       <c r="B35">
         <v>11.95</v>
       </c>
       <c r="C35">
-        <v>2651.5820906312406</v>
+        <v>2652.1660183401195</v>
       </c>
       <c r="D35">
-        <v>11.996049550667117</v>
+        <v>11.891467196175237</v>
       </c>
       <c r="E35">
-        <v>-0.61790936875922853</v>
+        <v>2.3660183401193535</v>
       </c>
       <c r="F35">
-        <v>4.6049550667117245E-2</v>
+        <v>-5.853280382476278E-2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>2652.2</v>
+        <v>2649.8</v>
       </c>
       <c r="B36">
-        <v>13.98</v>
+        <v>13.95</v>
       </c>
       <c r="C36">
-        <v>2652.1789064854411</v>
+        <v>2653.1908802783732</v>
       </c>
       <c r="D36">
-        <v>14.017544941313158</v>
+        <v>13.779332434976208</v>
       </c>
       <c r="E36">
-        <v>-2.1093514558742754E-2</v>
+        <v>3.3908802783730607</v>
       </c>
       <c r="F36">
-        <v>3.7544941313157665E-2</v>
+        <v>-0.17066756502379121</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>2652.2</v>
+        <v>2649.8</v>
       </c>
       <c r="B37">
-        <v>15.98</v>
+        <v>15.97</v>
       </c>
       <c r="C37">
-        <v>2653.1782132941457</v>
+        <v>2653.7357419430859</v>
       </c>
       <c r="D37">
-        <v>15.997284317417089</v>
+        <v>15.636892390184286</v>
       </c>
       <c r="E37">
-        <v>0.97821329414591673</v>
+        <v>3.935741943085759</v>
       </c>
       <c r="F37">
-        <v>1.7284317417088246E-2</v>
+        <v>-0.33310760981571441</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>2751.9</v>
+        <v>2749.5</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>2753.5716491131921</v>
+        <v>2752.5314242604823</v>
       </c>
       <c r="D38">
-        <v>-8.1707594258128707E-2</v>
+        <v>2.1106867521831024E-2</v>
       </c>
       <c r="E38">
-        <v>1.6716491131919611</v>
+        <v>3.0314242604822539</v>
       </c>
       <c r="F38">
-        <v>-8.1707594258128707E-2</v>
+        <v>2.1106867521831024E-2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>2751.9</v>
+        <v>2749.5</v>
       </c>
       <c r="B39">
-        <v>-16.079999999999998</v>
+        <v>-15.9</v>
       </c>
       <c r="C39">
-        <v>2753.7476192786448</v>
+        <v>2753.2124479012568</v>
       </c>
       <c r="D39">
-        <v>-15.84639927712583</v>
+        <v>-15.791924484267653</v>
       </c>
       <c r="E39">
-        <v>1.8476192786447427</v>
+        <v>3.7124479012568372</v>
       </c>
       <c r="F39">
-        <v>0.23360072287416855</v>
+        <v>0.10807551573234697</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>2751.9</v>
+        <v>2749.5</v>
       </c>
       <c r="B40">
-        <v>-13.98</v>
+        <v>-14.1</v>
       </c>
       <c r="C40">
-        <v>2753.1594112494499</v>
+        <v>2752.2483425043756</v>
       </c>
       <c r="D40">
-        <v>-13.813963881736283</v>
+        <v>-14.004073649574396</v>
       </c>
       <c r="E40">
-        <v>1.2594112494498404</v>
+        <v>2.7483425043756142</v>
       </c>
       <c r="F40">
-        <v>0.16603611826371711</v>
+        <v>9.5926350425603601E-2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>2751.9</v>
+        <v>2749.5</v>
       </c>
       <c r="B41">
-        <v>-11.98</v>
+        <v>-12.08</v>
       </c>
       <c r="C41">
-        <v>2752.3582135525908</v>
+        <v>2752.2581695993954</v>
       </c>
       <c r="D41">
-        <v>-11.860961959958205</v>
+        <v>-12.027853878972747</v>
       </c>
       <c r="E41">
-        <v>0.45821355259067786</v>
+        <v>2.7581695993953872</v>
       </c>
       <c r="F41">
-        <v>0.11903804004179541</v>
+        <v>5.214612102725269E-2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>2751.9</v>
+        <v>2749.5</v>
       </c>
       <c r="B42">
-        <v>-9.98</v>
+        <v>-10.1</v>
       </c>
       <c r="C42">
-        <v>2752.9427446248883</v>
+        <v>2752.2406718151337</v>
       </c>
       <c r="D42">
-        <v>-9.9165350549779312</v>
+        <v>-10.07198075108621</v>
       </c>
       <c r="E42">
-        <v>1.0427446248882006</v>
+        <v>2.7406718151337373</v>
       </c>
       <c r="F42">
-        <v>6.346494502206923E-2</v>
+        <v>2.8019248913789596E-2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>2751.9</v>
+        <v>2749.5</v>
       </c>
       <c r="B43">
-        <v>-7.98</v>
+        <v>-8.1</v>
       </c>
       <c r="C43">
-        <v>2752.2362696838522</v>
+        <v>2751.6436046819217</v>
       </c>
       <c r="D43">
-        <v>-7.9435908190179116</v>
+        <v>-8.0833654346453443</v>
       </c>
       <c r="E43">
-        <v>0.3362696838521515</v>
+        <v>2.1436046819217154</v>
       </c>
       <c r="F43">
-        <v>3.6409180982088785E-2</v>
+        <v>1.6634565354655351E-2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>2751.9</v>
+        <v>2749.5</v>
       </c>
       <c r="B44">
-        <v>-5.98</v>
+        <v>-6.1</v>
       </c>
       <c r="C44">
-        <v>2751.9169559774164</v>
+        <v>2751.7933289822968</v>
       </c>
       <c r="D44">
-        <v>-5.9711571141412323</v>
+        <v>-6.0840910458793447</v>
       </c>
       <c r="E44">
-        <v>1.6955977416273527E-2</v>
+        <v>2.2933289822967708</v>
       </c>
       <c r="F44">
-        <v>8.8428858587681347E-3</v>
+        <v>1.5908954120654961E-2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>2751.9</v>
+        <v>2749.5</v>
       </c>
       <c r="B45">
-        <v>-3.98</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="C45">
-        <v>2751.9470294857206</v>
+        <v>2753.1012505595118</v>
       </c>
       <c r="D45">
-        <v>-4.0020588824710046</v>
+        <v>-4.0756315139097783</v>
       </c>
       <c r="E45">
-        <v>4.7029485720486264E-2</v>
+        <v>3.6012505595117545</v>
       </c>
       <c r="F45">
-        <v>-2.2058882471004626E-2</v>
+        <v>2.4368486090221353E-2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>2751.9</v>
+        <v>2749.5</v>
       </c>
       <c r="B46">
-        <v>-2</v>
+        <v>-2.1</v>
       </c>
       <c r="C46">
-        <v>2752.8117754741347</v>
+        <v>2753.4494503620995</v>
       </c>
       <c r="D46">
-        <v>-2.0377275967027106</v>
+        <v>-2.0570608209181116</v>
       </c>
       <c r="E46">
-        <v>0.91177547413462889</v>
+        <v>3.9494503620994692</v>
       </c>
       <c r="F46">
-        <v>-3.7727596702710642E-2</v>
+        <v>4.293917908188849E-2</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>2751.9</v>
+        <v>2749.5</v>
       </c>
       <c r="B47">
-        <v>0.02</v>
+        <v>-0.1</v>
       </c>
       <c r="C47">
-        <v>2753.6322784508657</v>
+        <v>2752.6056645619515</v>
       </c>
       <c r="D47">
-        <v>-1.8485984623633624E-2</v>
+        <v>-3.7445903031351077E-2</v>
       </c>
       <c r="E47">
-        <v>1.7322784508655786</v>
+        <v>3.1056645619514711</v>
       </c>
       <c r="F47">
-        <v>-3.8485984623633625E-2</v>
+        <v>6.2554096968648928E-2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>2751.9</v>
+        <v>2749.5</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="C48">
-        <v>2751.6376278125708</v>
+        <v>2753.2761952955743</v>
       </c>
       <c r="D48">
-        <v>1.9414634269992719</v>
+        <v>2.0058875490673209</v>
       </c>
       <c r="E48">
-        <v>-0.26237218742926416</v>
+        <v>3.7761952955743254</v>
       </c>
       <c r="F48">
-        <v>-5.853657300072812E-2</v>
+        <v>0.10588754906732101</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>2751.9</v>
+        <v>2749.5</v>
       </c>
       <c r="B49">
-        <v>3.98</v>
+        <v>3.9</v>
       </c>
       <c r="C49">
-        <v>2753.3095364367355</v>
+        <v>2752.8415192752891</v>
       </c>
       <c r="D49">
-        <v>3.9300625668934583</v>
+        <v>4.038789942534911</v>
       </c>
       <c r="E49">
-        <v>1.4095364367353795</v>
+        <v>3.3415192752891016</v>
       </c>
       <c r="F49">
-        <v>-4.993743310654164E-2</v>
+        <v>0.13878994253491106</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>2751.9</v>
+        <v>2749.5</v>
       </c>
       <c r="B50">
-        <v>5.98</v>
+        <v>5.9</v>
       </c>
       <c r="C50">
-        <v>2752.6947517554549</v>
+        <v>2752.9974647897398</v>
       </c>
       <c r="D50">
-        <v>5.9438829993861155</v>
+        <v>6.0517854625174978</v>
       </c>
       <c r="E50">
-        <v>0.79475175545485399</v>
+        <v>3.4974647897397517</v>
       </c>
       <c r="F50">
-        <v>-3.6117000613884898E-2</v>
+        <v>0.15178546251749747</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>2751.9</v>
+        <v>2749.5</v>
       </c>
       <c r="B51">
-        <v>7.98</v>
+        <v>7.92</v>
       </c>
       <c r="C51">
-        <v>2751.8070525481548</v>
+        <v>2753.1588899017388</v>
       </c>
       <c r="D51">
-        <v>7.9729233557172909</v>
+        <v>8.0613981649249542</v>
       </c>
       <c r="E51">
-        <v>-9.2947451845247997E-2</v>
+        <v>3.658889901738803</v>
       </c>
       <c r="F51">
-        <v>-7.0766442827094878E-3</v>
+        <v>0.14139816492495427</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>2751.9</v>
+        <v>2749.5</v>
       </c>
       <c r="B52">
-        <v>9.98</v>
+        <v>9.92</v>
       </c>
       <c r="C52">
-        <v>2751.8033761091988</v>
+        <v>2751.2193769201626</v>
       </c>
       <c r="D52">
-        <v>9.9858978901034359</v>
+        <v>10.054950566085571</v>
       </c>
       <c r="E52">
-        <v>-9.6623890801311063E-2</v>
+        <v>1.719376920162631</v>
       </c>
       <c r="F52">
-        <v>5.8978901034354436E-3</v>
+        <v>0.13495056608557121</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>2751.9</v>
+        <v>2749.5</v>
       </c>
       <c r="B53">
         <v>11.95</v>
       </c>
       <c r="C53">
-        <v>2751.1285149215332</v>
+        <v>2751.9220783290893</v>
       </c>
       <c r="D53">
-        <v>11.985373132983874</v>
+        <v>12.002236989728903</v>
       </c>
       <c r="E53">
-        <v>-0.77148507846686698</v>
+        <v>2.4220783290893451</v>
       </c>
       <c r="F53">
-        <v>3.5373132983874456E-2</v>
+        <v>5.2236989728903893E-2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>2751.9</v>
+        <v>2749.5</v>
       </c>
       <c r="B54">
-        <v>13.98</v>
+        <v>13.95</v>
       </c>
       <c r="C54">
-        <v>2751.3014290820961</v>
+        <v>2751.240560062296</v>
       </c>
       <c r="D54">
-        <v>13.99994221654487</v>
+        <v>13.926180491017092</v>
       </c>
       <c r="E54">
-        <v>-0.59857091790399863</v>
+        <v>1.7405600622960264</v>
       </c>
       <c r="F54">
-        <v>1.9942216544869495E-2</v>
+        <v>-2.3819508982906967E-2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>2751.9</v>
+        <v>2749.5</v>
       </c>
       <c r="B55">
-        <v>15.98</v>
+        <v>15.97</v>
       </c>
       <c r="C55">
-        <v>2751.877316410269</v>
+        <v>2751.6671759119004</v>
       </c>
       <c r="D55">
-        <v>15.989027585332781</v>
+        <v>15.817690409266584</v>
       </c>
       <c r="E55">
-        <v>-2.2683589731059328E-2</v>
+        <v>2.1671759119003582</v>
       </c>
       <c r="F55">
-        <v>9.0275853327810296E-3</v>
+        <v>-0.15230959073341666</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>2851.6</v>
+        <v>2849.2</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>2850.6416374254586</v>
+        <v>2852.772856680197</v>
       </c>
       <c r="D56">
-        <v>-6.3668080090320503E-2</v>
+        <v>-4.6829718762359765E-2</v>
       </c>
       <c r="E56">
-        <v>-0.95836257454129736</v>
+        <v>3.5728566801972192</v>
       </c>
       <c r="F56">
-        <v>-6.3668080090320503E-2</v>
+        <v>-4.6829718762359765E-2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>2851.6</v>
+        <v>2849.2</v>
       </c>
       <c r="B57">
-        <v>-16.07</v>
+        <v>-15.9</v>
       </c>
       <c r="C57">
-        <v>2852.675771134876</v>
+        <v>2851.1198045439528</v>
       </c>
       <c r="D57">
-        <v>-15.800939757577622</v>
+        <v>-15.723450571281809</v>
       </c>
       <c r="E57">
-        <v>1.0757711348760495</v>
+        <v>1.9198045439529778</v>
       </c>
       <c r="F57">
-        <v>0.26906024242237869</v>
+        <v>0.17654942871819124</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>2851.6</v>
+        <v>2849.2</v>
       </c>
       <c r="B58">
-        <v>-14</v>
+        <v>-14.1</v>
       </c>
       <c r="C58">
-        <v>2852.1824262744608</v>
+        <v>2851.7639861440266</v>
       </c>
       <c r="D58">
-        <v>-13.782164186995804</v>
+        <v>-13.949658659587749</v>
       </c>
       <c r="E58">
-        <v>0.58242627446088591</v>
+        <v>2.563986144026785</v>
       </c>
       <c r="F58">
-        <v>0.21783581300419641</v>
+        <v>0.15034134041225045</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>2851.6</v>
+        <v>2849.2</v>
       </c>
       <c r="B59">
-        <v>-11.98</v>
+        <v>-12.1</v>
       </c>
       <c r="C59">
-        <v>2851.6033797794703</v>
+        <v>2851.5510194271365</v>
       </c>
       <c r="D59">
-        <v>-11.801175199535383</v>
+        <v>-12.018112883933988</v>
       </c>
       <c r="E59">
-        <v>3.3797794703787076E-3</v>
+        <v>2.3510194271366345</v>
       </c>
       <c r="F59">
-        <v>0.17882480046461779</v>
+        <v>8.1887116066011956E-2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>2851.6</v>
+        <v>2849.2</v>
       </c>
       <c r="B60">
-        <v>-9.9499999999999993</v>
+        <v>-10.08</v>
       </c>
       <c r="C60">
-        <v>2852.0093914966956</v>
+        <v>2851.3128861424962</v>
       </c>
       <c r="D60">
-        <v>-9.861297973942504</v>
+        <v>-10.059634666354388</v>
       </c>
       <c r="E60">
-        <v>0.40939149669566177</v>
+        <v>2.1128861424963361</v>
       </c>
       <c r="F60">
-        <v>8.8702026057495331E-2</v>
+        <v>2.0365333645612438E-2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>2851.6</v>
+        <v>2849.2</v>
       </c>
       <c r="B61">
-        <v>-8</v>
+        <v>-8.1</v>
       </c>
       <c r="C61">
-        <v>2851.3000328481917</v>
+        <v>2851.2323585503218</v>
       </c>
       <c r="D61">
-        <v>-7.9278024190032887</v>
+        <v>-8.1359422128558361</v>
       </c>
       <c r="E61">
-        <v>-0.2999671518082323</v>
+        <v>2.0323585503219874</v>
       </c>
       <c r="F61">
-        <v>7.2197580996711253E-2</v>
+        <v>-3.5942212855836431E-2</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>2851.6</v>
+        <v>2849.2</v>
       </c>
       <c r="B62">
-        <v>-5.95</v>
+        <v>-6.1</v>
       </c>
       <c r="C62">
-        <v>2851.7428509103911</v>
+        <v>2853.0052334395609</v>
       </c>
       <c r="D62">
-        <v>-5.9351332371579755</v>
+        <v>-6.1291513985790491</v>
       </c>
       <c r="E62">
-        <v>0.14285091039118925</v>
+        <v>3.8052334395611069</v>
       </c>
       <c r="F62">
-        <v>1.4866762842024706E-2</v>
+        <v>-2.915139857904947E-2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>2851.6</v>
+        <v>2849.2</v>
       </c>
       <c r="B63">
-        <v>-4</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="C63">
-        <v>2851.2765644975125</v>
+        <v>2851.0078902374999</v>
       </c>
       <c r="D63">
-        <v>-3.9892259949190545</v>
+        <v>-4.1383435508722082</v>
       </c>
       <c r="E63">
-        <v>-0.32343550248742758</v>
+        <v>1.8078902375000325</v>
       </c>
       <c r="F63">
-        <v>1.0774005080945503E-2</v>
+        <v>-3.8343550872208532E-2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>2851.6</v>
+        <v>2849.2</v>
       </c>
       <c r="B64">
-        <v>-2</v>
+        <v>-2.1</v>
       </c>
       <c r="C64">
-        <v>2850.5506459020226</v>
+        <v>2851.5009553508203</v>
       </c>
       <c r="D64">
-        <v>-2.0058825143986159</v>
+        <v>-2.1231754462577292</v>
       </c>
       <c r="E64">
-        <v>-1.049354097977357</v>
+        <v>2.300955350820459</v>
       </c>
       <c r="F64">
-        <v>-5.8825143986158679E-3</v>
+        <v>-2.317544625772916E-2</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>2851.6</v>
+        <v>2849.2</v>
       </c>
       <c r="B65">
-        <v>0.02</v>
+        <v>-0.1</v>
       </c>
       <c r="C65">
-        <v>2850.3470811993011</v>
+        <v>2852.835159454708</v>
       </c>
       <c r="D65">
-        <v>4.654327150290535E-3</v>
+        <v>-0.10717706124524551</v>
       </c>
       <c r="E65">
-        <v>-1.2529188006988079</v>
+        <v>3.6351594547081731</v>
       </c>
       <c r="F65">
-        <v>-1.5345672849709465E-2</v>
+        <v>-7.1770612452455029E-3</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>2851.6</v>
+        <v>2849.2</v>
       </c>
       <c r="B66">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="C66">
-        <v>2853.1199285153216</v>
+        <v>2852.6561132448892</v>
       </c>
       <c r="D66">
-        <v>1.9579802266247996</v>
+        <v>1.9292147821037684</v>
       </c>
       <c r="E66">
-        <v>1.5199285153216806</v>
+        <v>3.4561132448893659</v>
       </c>
       <c r="F66">
-        <v>-2.2019773375200336E-2</v>
+        <v>2.9214782103768488E-2</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>2851.6</v>
+        <v>2849.2</v>
       </c>
       <c r="B67">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="C67">
-        <v>2850.0095152737777</v>
+        <v>2852.8048427170352</v>
       </c>
       <c r="D67">
-        <v>3.9784568251026253</v>
+        <v>3.9658435532931171</v>
       </c>
       <c r="E67">
-        <v>-1.5904847262222574</v>
+        <v>3.6048427170353534</v>
       </c>
       <c r="F67">
-        <v>-2.1543174897374673E-2</v>
+        <v>6.5843553293117196E-2</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>2851.6</v>
+        <v>2849.2</v>
       </c>
       <c r="B68">
-        <v>5.98</v>
+        <v>5.9</v>
       </c>
       <c r="C68">
-        <v>2852.076226836989</v>
+        <v>2852.1752220586868</v>
       </c>
       <c r="D68">
-        <v>5.9737414704178073</v>
+        <v>5.996942091325101</v>
       </c>
       <c r="E68">
-        <v>0.47622683698909896</v>
+        <v>2.9752220586869953</v>
       </c>
       <c r="F68">
-        <v>-6.2585295821930842E-3</v>
+        <v>9.6942091325100677E-2</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>2851.6</v>
+        <v>2849.2</v>
       </c>
       <c r="B69">
-        <v>7.98</v>
+        <v>7.92</v>
       </c>
       <c r="C69">
-        <v>2851.9358428137816</v>
+        <v>2852.3382320666306</v>
       </c>
       <c r="D69">
-        <v>7.9871418202691284</v>
+        <v>8.0116773183070631</v>
       </c>
       <c r="E69">
-        <v>0.33584281378170999</v>
+        <v>3.1382320666307351</v>
       </c>
       <c r="F69">
-        <v>7.1418202691280186E-3</v>
+        <v>9.167731830706316E-2</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>2851.6</v>
+        <v>2849.2</v>
       </c>
       <c r="B70">
-        <v>9.98</v>
+        <v>9.92</v>
       </c>
       <c r="C70">
-        <v>2850.7261707797238</v>
+        <v>2850.5565004210107</v>
       </c>
       <c r="D70">
-        <v>9.9945367151680706</v>
+        <v>10.015018133987184</v>
       </c>
       <c r="E70">
-        <v>-0.87382922027609311</v>
+        <v>1.3565004210108782</v>
       </c>
       <c r="F70">
-        <v>1.4536715168070202E-2</v>
+        <v>9.5018133987183617E-2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>2851.6</v>
+        <v>2849.2</v>
       </c>
       <c r="B71">
         <v>11.95</v>
       </c>
       <c r="C71">
-        <v>2851.2099528729582</v>
+        <v>2851.4342081867057</v>
       </c>
       <c r="D71">
-        <v>11.995983483570674</v>
+        <v>11.985375534113169</v>
       </c>
       <c r="E71">
-        <v>-0.39004712704172562</v>
+        <v>2.2342081867059278</v>
       </c>
       <c r="F71">
-        <v>4.5983483570674721E-2</v>
+        <v>3.5375534113169849E-2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>2851.6</v>
+        <v>2849.2</v>
       </c>
       <c r="B72">
-        <v>13.98</v>
+        <v>13.95</v>
       </c>
       <c r="C72">
-        <v>2850.908910740724</v>
+        <v>2850.2517218532071</v>
       </c>
       <c r="D72">
-        <v>14.008078139023732</v>
+        <v>13.936516369200175</v>
       </c>
       <c r="E72">
-        <v>-0.691089259275941</v>
+        <v>1.0517218532072548</v>
       </c>
       <c r="F72">
-        <v>2.8078139023731907E-2</v>
+        <v>-1.3483630799823842E-2</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>2851.6</v>
+        <v>2849.2</v>
       </c>
       <c r="B73">
-        <v>15.95</v>
+        <v>15.97</v>
       </c>
       <c r="C73">
-        <v>2851.0710635747146</v>
+        <v>2851.6102878514685</v>
       </c>
       <c r="D73">
-        <v>16.003958817768886</v>
+        <v>15.867279507167364</v>
       </c>
       <c r="E73">
-        <v>-0.52893642528533746</v>
+        <v>2.4102878514686381</v>
       </c>
       <c r="F73">
-        <v>5.3958817768887002E-2</v>
+        <v>-0.10272049283263662</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">

--- a/cam4_validation_result.xlsx
+++ b/cam4_validation_result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voies\Desktop\GodEyesProject\CalibPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0080154-3697-4BD1-939A-B60DAC4086F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6785D904-9751-464B-B3E8-9AA26F506E8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16774" yWindow="4500" windowWidth="16192" windowHeight="13226" xr2:uid="{EDF124C2-77FF-41DF-A49C-75F1947FF335}"/>
+    <workbookView xWindow="4706" yWindow="3506" windowWidth="9265" windowHeight="13225" xr2:uid="{EDF124C2-77FF-41DF-A49C-75F1947FF335}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,37 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -189,274 +219,274 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>2.1013953035530903</c:v>
+                  <c:v>-1.0911199761326316</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.3258010547046979</c:v>
+                  <c:v>-1.6843765359681129E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7203990793723278</c:v>
+                  <c:v>-8.8054546500188735E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.17728496628024</c:v>
+                  <c:v>-1.1466057643278873</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5323267437520371</c:v>
+                  <c:v>-1.5412842152068151</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7970307480741212</c:v>
+                  <c:v>-1.4545818327087545</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2174181063796823</c:v>
+                  <c:v>-0.14748661704015831</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8975006187711188</c:v>
+                  <c:v>-0.95544325429909804</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.6027900086451154</c:v>
+                  <c:v>-0.66613848623092053</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.8371526425626143</c:v>
+                  <c:v>-1.1424555400053578</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.2365701992957838</c:v>
+                  <c:v>-1.2187847496629729</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.5660577239950726</c:v>
+                  <c:v>-1.0766813510099382</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.7314182389955022</c:v>
+                  <c:v>-1.4332017907754562</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.7137223733680003</c:v>
+                  <c:v>1.2577132293245086E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.3851543846103596</c:v>
+                  <c:v>-1.2586577378356196</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.3161981853540965</c:v>
+                  <c:v>-0.82633994159186841</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.9119431427216114</c:v>
+                  <c:v>-0.6959729819018321</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.0431785198611578</c:v>
+                  <c:v>-0.39364140990164742</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.177979353579758</c:v>
+                  <c:v>-1.9560880660951625</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.6145478287239712</c:v>
+                  <c:v>8.0735991487927095E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.5302101587471952</c:v>
+                  <c:v>-0.28516866651398232</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.0287850698823604</c:v>
+                  <c:v>-0.49822624085800271</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.1427955409826609</c:v>
+                  <c:v>-0.75697377035930913</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.9420465990001503</c:v>
+                  <c:v>-0.43929382363830882</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.022384514087662</c:v>
+                  <c:v>-1.4052550326327946</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.475561495924012</c:v>
+                  <c:v>-0.42831860168780622</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.4329663162970974</c:v>
+                  <c:v>-1.2336816946526596</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.9009539885087179</c:v>
+                  <c:v>-1.6450948128826894</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.3425247098384716</c:v>
+                  <c:v>-2.260230468800728E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.1635191921618571</c:v>
+                  <c:v>8.9829959492817579E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.2024991078737912</c:v>
+                  <c:v>-0.99027458214868602</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.1985714320353509</c:v>
+                  <c:v>-1.2531762760972924</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.8116681417836844</c:v>
+                  <c:v>-1.0499874390875448</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.3660183401193535</c:v>
+                  <c:v>-2.008202974550386</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.3908802783730607</c:v>
+                  <c:v>-0.6518323611676351</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.935741943085759</c:v>
+                  <c:v>-0.57747559213612476</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.0314242604822539</c:v>
+                  <c:v>-1.1054204652755288</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.7124479012568372</c:v>
+                  <c:v>-0.62241902362120527</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.7483425043756142</c:v>
+                  <c:v>-1.4089918446593401</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.7581695993953872</c:v>
+                  <c:v>-1.0273964732768945</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.7406718151337373</c:v>
+                  <c:v>-2.0496274987199286</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.1436046819217154</c:v>
+                  <c:v>-1.4090143419048218</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.2933289822967708</c:v>
+                  <c:v>-0.9925869983812845</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.6012505595117545</c:v>
+                  <c:v>-0.92391405876787758</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.9494503620994692</c:v>
+                  <c:v>-1.1482299336412325</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.1056645619514711</c:v>
+                  <c:v>-1.2540137406163012</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.7761952955743254</c:v>
+                  <c:v>-7.2918683943498763E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.3415192752891016</c:v>
+                  <c:v>0.29177337578721563</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.4974647897397517</c:v>
+                  <c:v>-0.97539929893400767</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.658889901738803</c:v>
+                  <c:v>-0.8410398264363721</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.719376920162631</c:v>
+                  <c:v>-2.3377561666798101</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.4220783290893451</c:v>
+                  <c:v>-1.3292246920755133</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.7405600622960264</c:v>
+                  <c:v>-2.3398637212189897</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.1671759119003582</c:v>
+                  <c:v>-0.59976923781914593</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.5728566801972192</c:v>
+                  <c:v>0.79581343590280085</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.9198045439529778</c:v>
+                  <c:v>0.99580263878442565</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.563986144026785</c:v>
+                  <c:v>0.15975453256487526</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.3510194271366345</c:v>
+                  <c:v>-2.8609700602828525E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.1128861424963361</c:v>
+                  <c:v>-0.95445174394944843</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.0323585503219874</c:v>
+                  <c:v>-0.75768173956294049</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.8052334395611069</c:v>
+                  <c:v>1.1236787083512354</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.8078902375000325</c:v>
+                  <c:v>0.63906538186984108</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.300955350820459</c:v>
+                  <c:v>6.8200381410406408E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.6351594547081731</c:v>
+                  <c:v>0.7071115712055871</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3.4561132448893659</c:v>
+                  <c:v>-6.1939251645526383E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3.6048427170353534</c:v>
+                  <c:v>0.28651343249612182</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.9752220586869953</c:v>
+                  <c:v>0.2262023232269712</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.1382320666307351</c:v>
+                  <c:v>0.35765159329503149</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.3565004210108782</c:v>
+                  <c:v>-0.16083653169198442</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.2342081867059278</c:v>
+                  <c:v>-9.8517218321376276E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.0517218532072548</c:v>
+                  <c:v>-0.48509867678012597</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.4102878514686381</c:v>
+                  <c:v>0.1802607492786592</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.3761717043321369</c:v>
+                  <c:v>8.6637712307947368E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-0.22794253985011892</c:v>
+                  <c:v>-0.66888261994927234</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-1.269749672486796</c:v>
+                  <c:v>-0.52191324658178928</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-2.3120048222472178</c:v>
+                  <c:v>-1.5939424799007611</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-1.8972480945458301</c:v>
+                  <c:v>-0.47917336794625953</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-1.3418723031381887</c:v>
+                  <c:v>-0.50907237750334389</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.38846083238377105</c:v>
+                  <c:v>0.16671515543703208</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-1.0883547448524951</c:v>
+                  <c:v>0.46723156660891618</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.0165168841067498</c:v>
+                  <c:v>-0.63618658144514484</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.7398500208560108</c:v>
+                  <c:v>-0.16540056277290205</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.1554764397164945</c:v>
+                  <c:v>0.54987328487277409</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.5732166054581285</c:v>
+                  <c:v>0.75820110206086611</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.4336349484983657</c:v>
+                  <c:v>-0.11313076127953536</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-0.30842791869463326</c:v>
+                  <c:v>-8.2812488717081578E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-0.51524277617772896</c:v>
+                  <c:v>-0.22092317230317349</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-0.64243955469237335</c:v>
+                  <c:v>-0.74390791727728356</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.48381320192720523</c:v>
+                  <c:v>-0.55259253165377231</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-1.0379320703782469</c:v>
+                  <c:v>-0.80416024503301742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -648,27 +678,7 @@
     </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:sysClr>
-            </a:solidFill>
-            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-          </a:endParaRPr>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
+    <cx:title pos="t" align="ctr" overlay="0"/>
     <cx:plotArea>
       <cx:plotAreaRegion>
         <cx:series layoutId="clusteredColumn" uniqueId="{56787089-E552-46D0-8813-EA054DC9E0F6}">
@@ -2214,7 +2224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872424F4-2F1D-4966-9C10-10B6F69B4520}">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:I6"/>
     </sheetView>
   </sheetViews>
@@ -2242,1832 +2252,1832 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>2550.1</v>
+        <v>2600.4</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2552.201395303553</v>
+        <v>2599.3088800238675</v>
       </c>
       <c r="D2">
-        <v>-0.15801472976170705</v>
+        <v>-4.239670169769548E-2</v>
       </c>
       <c r="E2">
-        <v>2.1013953035530903</v>
+        <v>-1.0911199761326316</v>
       </c>
       <c r="F2">
-        <v>-0.15801472976170705</v>
+        <v>-4.239670169769548E-2</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
       </c>
       <c r="I2">
-        <v>2.8823595852204686</v>
+        <v>0.9493971974948181</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2550.1</v>
+        <v>2600.4</v>
       </c>
       <c r="B3">
-        <v>-15.9</v>
+        <v>-16.079999999999998</v>
       </c>
       <c r="C3">
-        <v>2554.4258010547046</v>
+        <v>2600.3831562346404</v>
       </c>
       <c r="D3">
-        <v>-16.402858589045191</v>
+        <v>-15.945837709330728</v>
       </c>
       <c r="E3">
-        <v>4.3258010547046979</v>
+        <v>-1.6843765359681129E-2</v>
       </c>
       <c r="F3">
-        <v>-0.5028585890451911</v>
+        <v>0.13416229066926988</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
       </c>
       <c r="I3">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>2550.1</v>
+        <v>2600.4</v>
       </c>
       <c r="B4">
-        <v>-14.1</v>
+        <v>-13.95</v>
       </c>
       <c r="C4">
-        <v>2553.8203990793722</v>
+        <v>2600.3119454534999</v>
       </c>
       <c r="D4">
-        <v>-14.52167833468947</v>
+        <v>-13.892400803829661</v>
       </c>
       <c r="E4">
-        <v>3.7203990793723278</v>
+        <v>-8.8054546500188735E-2</v>
       </c>
       <c r="F4">
-        <v>-0.4216783346894708</v>
+        <v>5.7599196170338374E-2</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
       </c>
       <c r="I4">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>2550.1</v>
+        <v>2600.4</v>
       </c>
       <c r="B5">
-        <v>-12.1</v>
+        <v>-11.95</v>
       </c>
       <c r="C5">
-        <v>2553.2772849662801</v>
+        <v>2599.2533942356722</v>
       </c>
       <c r="D5">
-        <v>-12.460010662084875</v>
+        <v>-11.957659376057652</v>
       </c>
       <c r="E5">
-        <v>3.17728496628024</v>
+        <v>-1.1466057643278873</v>
       </c>
       <c r="F5">
-        <v>-0.36001066208487487</v>
+        <v>-7.659376057652878E-3</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
       </c>
       <c r="I5">
-        <v>0.1111111111111111</v>
+        <v>0.92592592592592593</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>2550.1</v>
+        <v>2600.4</v>
       </c>
       <c r="B6">
-        <v>-10.07</v>
+        <v>-10</v>
       </c>
       <c r="C6">
-        <v>2552.6323267437519</v>
+        <v>2598.8587157847933</v>
       </c>
       <c r="D6">
-        <v>-10.429603382825933</v>
+        <v>-9.9905924492830618</v>
       </c>
       <c r="E6">
-        <v>2.5323267437520371</v>
+        <v>-1.5412842152068151</v>
       </c>
       <c r="F6">
-        <v>-0.35960338282593263</v>
+        <v>9.4075507169382178E-3</v>
       </c>
       <c r="H6" t="s">
         <v>10</v>
       </c>
       <c r="I6">
-        <v>4.1635191921618571</v>
+        <v>2.0496274987199286</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>2550.1</v>
+        <v>2600.4</v>
       </c>
       <c r="B7">
-        <v>-8.1</v>
+        <v>-7.98</v>
       </c>
       <c r="C7">
-        <v>2552.897030748074</v>
+        <v>2598.9454181672913</v>
       </c>
       <c r="D7">
-        <v>-8.4102003297172008</v>
+        <v>-7.9898971890243633</v>
       </c>
       <c r="E7">
-        <v>2.7970307480741212</v>
+        <v>-1.4545818327087545</v>
       </c>
       <c r="F7">
-        <v>-0.31020032971720113</v>
+        <v>-9.8971890243628735E-3</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>2550.1</v>
+        <v>2600.4</v>
       </c>
       <c r="B8">
-        <v>-6.1</v>
+        <v>-5.98</v>
       </c>
       <c r="C8">
-        <v>2552.3174181063796</v>
+        <v>2600.2525133829599</v>
       </c>
       <c r="D8">
-        <v>-6.3804449286131009</v>
+        <v>-6.0214280787126304</v>
       </c>
       <c r="E8">
-        <v>2.2174181063796823</v>
+        <v>-0.14748661704015831</v>
       </c>
       <c r="F8">
-        <v>-0.28044492861310122</v>
+        <v>-4.142807871262999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>2550.1</v>
+        <v>2600.4</v>
       </c>
       <c r="B9">
-        <v>-4.0999999999999996</v>
+        <v>-3.98</v>
       </c>
       <c r="C9">
-        <v>2552.997500618771</v>
+        <v>2599.444556745701</v>
       </c>
       <c r="D9">
-        <v>-4.3226754842111852</v>
+        <v>-4.0304526740410704</v>
       </c>
       <c r="E9">
-        <v>2.8975006187711188</v>
+        <v>-0.95544325429909804</v>
       </c>
       <c r="F9">
-        <v>-0.22267548421118555</v>
+        <v>-5.0452674041070456E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>2550.1</v>
+        <v>2600.4</v>
       </c>
       <c r="B10">
-        <v>-2.1</v>
+        <v>-1.98</v>
       </c>
       <c r="C10">
-        <v>2552.702790008645</v>
+        <v>2599.7338615137692</v>
       </c>
       <c r="D10">
-        <v>-2.2973027392519256</v>
+        <v>-2.0195747162435471</v>
       </c>
       <c r="E10">
-        <v>2.6027900086451154</v>
+        <v>-0.66613848623092053</v>
       </c>
       <c r="F10">
-        <v>-0.19730273925192554</v>
+        <v>-3.9574716243547137E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>2550.1</v>
+        <v>2600.4</v>
       </c>
       <c r="B11">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>2551.9371526425625</v>
+        <v>2599.2575444599947</v>
       </c>
       <c r="D11">
-        <v>-0.23803430886600349</v>
+        <v>-2.2150689593784755E-2</v>
       </c>
       <c r="E11">
-        <v>1.8371526425626143</v>
+        <v>-1.1424555400053578</v>
       </c>
       <c r="F11">
-        <v>-0.13803430886600349</v>
+        <v>-2.2150689593784755E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>2550.1</v>
+        <v>2600.4</v>
       </c>
       <c r="B12">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>2553.3365701992957</v>
+        <v>2599.1812152503371</v>
       </c>
       <c r="D12">
-        <v>1.7937052730534786</v>
+        <v>2.0103606035590404</v>
       </c>
       <c r="E12">
-        <v>3.2365701992957838</v>
+        <v>-1.2187847496629729</v>
       </c>
       <c r="F12">
-        <v>-0.10629472694652131</v>
+        <v>1.0360603559040449E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>2550.1</v>
+        <v>2600.4</v>
       </c>
       <c r="B13">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>2552.666057723995</v>
+        <v>2599.3233186489902</v>
       </c>
       <c r="D13">
-        <v>3.8078493617055642</v>
+        <v>4.0317316391734064</v>
       </c>
       <c r="E13">
-        <v>2.5660577239950726</v>
+        <v>-1.0766813510099382</v>
       </c>
       <c r="F13">
-        <v>-9.2150638294435705E-2</v>
+        <v>3.1731639173406379E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>2550.1</v>
+        <v>2600.4</v>
       </c>
       <c r="B14">
-        <v>5.9</v>
+        <v>6.02</v>
       </c>
       <c r="C14">
-        <v>2552.8314182389954</v>
+        <v>2598.9667982092246</v>
       </c>
       <c r="D14">
-        <v>5.8068791915802995</v>
+        <v>6.0383949550735974</v>
       </c>
       <c r="E14">
-        <v>2.7314182389955022</v>
+        <v>-1.4332017907754562</v>
       </c>
       <c r="F14">
-        <v>-9.3120808419700829E-2</v>
+        <v>1.8394955073597785E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>2550.1</v>
+        <v>2600.4</v>
       </c>
       <c r="B15">
-        <v>7.95</v>
+        <v>8.02</v>
       </c>
       <c r="C15">
-        <v>2552.8137223733679</v>
+        <v>2600.4125771322933</v>
       </c>
       <c r="D15">
-        <v>7.8096745073242539</v>
+        <v>8.0195913196785842</v>
       </c>
       <c r="E15">
-        <v>2.7137223733680003</v>
+        <v>1.2577132293245086E-2</v>
       </c>
       <c r="F15">
-        <v>-0.14032549267574623</v>
+        <v>-4.086803214153889E-4</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>2550.1</v>
+        <v>2600.4</v>
       </c>
       <c r="B16">
-        <v>9.9</v>
+        <v>10.02</v>
       </c>
       <c r="C16">
-        <v>2552.4851543846103</v>
+        <v>2599.1413422621645</v>
       </c>
       <c r="D16">
-        <v>9.7134540304735566</v>
+        <v>10.010841140182698</v>
       </c>
       <c r="E16">
-        <v>2.3851543846103596</v>
+        <v>-1.2586577378356196</v>
       </c>
       <c r="F16">
-        <v>-0.18654596952644376</v>
+        <v>-9.1588598173011349E-3</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>2550.1</v>
+        <v>2600.4</v>
       </c>
       <c r="B17">
-        <v>11.95</v>
+        <v>12</v>
       </c>
       <c r="C17">
-        <v>2553.416198185354</v>
+        <v>2599.5736600584082</v>
       </c>
       <c r="D17">
-        <v>11.659275421781748</v>
+        <v>11.969116617013754</v>
       </c>
       <c r="E17">
-        <v>3.3161981853540965</v>
+        <v>-0.82633994159186841</v>
       </c>
       <c r="F17">
-        <v>-0.29072457821825104</v>
+        <v>-3.0883382986246488E-2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>2550.1</v>
+        <v>2600.4</v>
       </c>
       <c r="B18">
-        <v>13.95</v>
+        <v>14</v>
       </c>
       <c r="C18">
-        <v>2552.0119431427215</v>
+        <v>2599.7040270180983</v>
       </c>
       <c r="D18">
-        <v>13.498473123628457</v>
+        <v>13.975099374769002</v>
       </c>
       <c r="E18">
-        <v>1.9119431427216114</v>
+        <v>-0.6959729819018321</v>
       </c>
       <c r="F18">
-        <v>-0.45152687637154187</v>
+        <v>-2.490062523099823E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>2550.1</v>
+        <v>2600.4</v>
       </c>
       <c r="B19">
-        <v>15.95</v>
+        <v>16</v>
       </c>
       <c r="C19">
-        <v>2554.1431785198611</v>
+        <v>2600.0063585900984</v>
       </c>
       <c r="D19">
-        <v>15.317518237757579</v>
+        <v>15.952961652803699</v>
       </c>
       <c r="E19">
-        <v>4.0431785198611578</v>
+        <v>-0.39364140990164742</v>
       </c>
       <c r="F19">
-        <v>-0.63248176224242059</v>
+        <v>-4.7038347196300734E-2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>2649.8</v>
+        <v>2700.1</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2651.9779793535799</v>
+        <v>2698.1439119339047</v>
       </c>
       <c r="D20">
-        <v>-1.241982224017381E-2</v>
+        <v>-3.8088366049831575E-2</v>
       </c>
       <c r="E20">
-        <v>2.177979353579758</v>
+        <v>-1.9560880660951625</v>
       </c>
       <c r="F20">
-        <v>-1.241982224017381E-2</v>
+        <v>-3.8088366049831575E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>2649.8</v>
+        <v>2700.1</v>
       </c>
       <c r="B21">
-        <v>-15.9</v>
+        <v>-16.07</v>
       </c>
       <c r="C21">
-        <v>2654.4145478287242</v>
+        <v>2700.1807359914878</v>
       </c>
       <c r="D21">
-        <v>-16.02291479125757</v>
+        <v>-15.914997789148547</v>
       </c>
       <c r="E21">
-        <v>4.6145478287239712</v>
+        <v>8.0735991487927095E-2</v>
       </c>
       <c r="F21">
-        <v>-0.12291479125756943</v>
+        <v>0.15500221085145327</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>2649.8</v>
+        <v>2700.1</v>
       </c>
       <c r="B22">
-        <v>-14.1</v>
+        <v>-13.95</v>
       </c>
       <c r="C22">
-        <v>2653.3302101587474</v>
+        <v>2699.8148313334859</v>
       </c>
       <c r="D22">
-        <v>-14.204243331114434</v>
+        <v>-13.872434539793836</v>
       </c>
       <c r="E22">
-        <v>3.5302101587471952</v>
+        <v>-0.28516866651398232</v>
       </c>
       <c r="F22">
-        <v>-0.10424333111443396</v>
+        <v>7.756546020616284E-2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>2649.8</v>
+        <v>2700.1</v>
       </c>
       <c r="B23">
-        <v>-12.1</v>
+        <v>-11.98</v>
       </c>
       <c r="C23">
-        <v>2652.8287850698825</v>
+        <v>2699.6017737591419</v>
       </c>
       <c r="D23">
-        <v>-12.189732629205075</v>
+        <v>-11.935435783118136</v>
       </c>
       <c r="E23">
-        <v>3.0287850698823604</v>
+        <v>-0.49822624085800271</v>
       </c>
       <c r="F23">
-        <v>-8.9732629205075298E-2</v>
+        <v>4.4564216881864738E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>2649.8</v>
+        <v>2700.1</v>
       </c>
       <c r="B24">
-        <v>-10.1</v>
+        <v>-9.98</v>
       </c>
       <c r="C24">
-        <v>2652.9427955409828</v>
+        <v>2699.3430262296406</v>
       </c>
       <c r="D24">
-        <v>-10.177573192987076</v>
+        <v>-9.9753105750924345</v>
       </c>
       <c r="E24">
-        <v>3.1427955409826609</v>
+        <v>-0.75697377035930913</v>
       </c>
       <c r="F24">
-        <v>-7.7573192987076212E-2</v>
+        <v>4.6894249075659644E-3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>2649.8</v>
+        <v>2700.1</v>
       </c>
       <c r="B25">
-        <v>-8.1</v>
+        <v>-7.98</v>
       </c>
       <c r="C25">
-        <v>2652.7420465990003</v>
+        <v>2699.6607061763616</v>
       </c>
       <c r="D25">
-        <v>-8.1707070549969281</v>
+        <v>-7.9855780706957038</v>
       </c>
       <c r="E25">
-        <v>2.9420465990001503</v>
+        <v>-0.43929382363830882</v>
       </c>
       <c r="F25">
-        <v>-7.070705499692842E-2</v>
+        <v>-5.5780706957033743E-3</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>2649.8</v>
+        <v>2700.1</v>
       </c>
       <c r="B26">
-        <v>-6.1</v>
+        <v>-5.98</v>
       </c>
       <c r="C26">
-        <v>2652.8223845140878</v>
+        <v>2698.6947449673671</v>
       </c>
       <c r="D26">
-        <v>-6.1523209086214345</v>
+        <v>-5.9896921887415528</v>
       </c>
       <c r="E26">
-        <v>3.022384514087662</v>
+        <v>-1.4052550326327946</v>
       </c>
       <c r="F26">
-        <v>-5.2320908621434903E-2</v>
+        <v>-9.692188741552421E-3</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>2649.8</v>
+        <v>2700.1</v>
       </c>
       <c r="B27">
-        <v>-4.0999999999999996</v>
+        <v>-3.98</v>
       </c>
       <c r="C27">
-        <v>2652.2755614959242</v>
+        <v>2699.6716813983121</v>
       </c>
       <c r="D27">
-        <v>-4.131251712375251</v>
+        <v>-4.0059603203353982</v>
       </c>
       <c r="E27">
-        <v>2.475561495924012</v>
+        <v>-0.42831860168780622</v>
       </c>
       <c r="F27">
-        <v>-3.1251712375251373E-2</v>
+        <v>-2.596032033539819E-2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>2649.8</v>
+        <v>2700.1</v>
       </c>
       <c r="B28">
-        <v>-2.1</v>
+        <v>-1.98</v>
       </c>
       <c r="C28">
-        <v>2652.2329663162973</v>
+        <v>2698.8663183053472</v>
       </c>
       <c r="D28">
-        <v>-2.098963343843042</v>
+        <v>-1.9984604443225107</v>
       </c>
       <c r="E28">
-        <v>2.4329663162970974</v>
+        <v>-1.2336816946526596</v>
       </c>
       <c r="F28">
-        <v>1.0366561569581378E-3</v>
+        <v>-1.8460444322510705E-2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>2649.8</v>
+        <v>2700.1</v>
       </c>
       <c r="B29">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>2652.7009539885089</v>
+        <v>2698.4549051871172</v>
       </c>
       <c r="D29">
-        <v>-7.5133726459845909E-2</v>
+        <v>-4.5275148510792677E-3</v>
       </c>
       <c r="E29">
-        <v>2.9009539885087179</v>
+        <v>-1.6450948128826894</v>
       </c>
       <c r="F29">
-        <v>2.4866273540154096E-2</v>
+        <v>-4.5275148510792677E-3</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>2649.8</v>
+        <v>2700.1</v>
       </c>
       <c r="B30">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="C30">
-        <v>2653.1425247098387</v>
+        <v>2700.0773976953119</v>
       </c>
       <c r="D30">
-        <v>1.9617234383820337</v>
+        <v>2.0072940288121948</v>
       </c>
       <c r="E30">
-        <v>3.3425247098384716</v>
+        <v>-2.260230468800728E-2</v>
       </c>
       <c r="F30">
-        <v>6.1723438382033757E-2</v>
+        <v>2.7294028812194782E-2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>2649.8</v>
+        <v>2700.1</v>
       </c>
       <c r="B31">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="C31">
-        <v>2653.963519192162</v>
+        <v>2700.1898299594927</v>
       </c>
       <c r="D31">
-        <v>3.9938194601410926</v>
+        <v>4.0655626724767133</v>
       </c>
       <c r="E31">
-        <v>4.1635191921618571</v>
+        <v>8.9829959492817579E-2</v>
       </c>
       <c r="F31">
-        <v>9.3819460141092659E-2</v>
+        <v>6.5562672476713324E-2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>2649.8</v>
+        <v>2700.1</v>
       </c>
       <c r="B32">
-        <v>5.9</v>
+        <v>6.05</v>
       </c>
       <c r="C32">
-        <v>2654.002499107874</v>
+        <v>2699.1097254178512</v>
       </c>
       <c r="D32">
-        <v>5.9999212147426828</v>
+        <v>6.0705190918008487</v>
       </c>
       <c r="E32">
-        <v>4.2024991078737912</v>
+        <v>-0.99027458214868602</v>
       </c>
       <c r="F32">
-        <v>9.9921214742682452E-2</v>
+        <v>2.0519091800848877E-2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>2649.8</v>
+        <v>2700.1</v>
       </c>
       <c r="B33">
-        <v>7.93</v>
+        <v>8</v>
       </c>
       <c r="C33">
-        <v>2652.9985714320355</v>
+        <v>2698.8468237239026</v>
       </c>
       <c r="D33">
-        <v>8.0114490098683344</v>
+        <v>8.0378623506084566</v>
       </c>
       <c r="E33">
-        <v>3.1985714320353509</v>
+        <v>-1.2531762760972924</v>
       </c>
       <c r="F33">
-        <v>8.1449009868334699E-2</v>
+        <v>3.7862350608456552E-2</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>2649.8</v>
+        <v>2700.1</v>
       </c>
       <c r="B34">
-        <v>9.93</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="C34">
-        <v>2652.6116681417839</v>
+        <v>2699.0500125609124</v>
       </c>
       <c r="D34">
-        <v>9.9503294476201667</v>
+        <v>10.030846103099154</v>
       </c>
       <c r="E34">
-        <v>2.8116681417836844</v>
+        <v>-1.0499874390875448</v>
       </c>
       <c r="F34">
-        <v>2.0329447620166974E-2</v>
+        <v>8.461030991551155E-4</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>2649.8</v>
+        <v>2700.1</v>
       </c>
       <c r="B35">
-        <v>11.95</v>
+        <v>12</v>
       </c>
       <c r="C35">
-        <v>2652.1660183401195</v>
+        <v>2698.0917970254495</v>
       </c>
       <c r="D35">
-        <v>11.891467196175237</v>
+        <v>11.999766532199065</v>
       </c>
       <c r="E35">
-        <v>2.3660183401193535</v>
+        <v>-2.008202974550386</v>
       </c>
       <c r="F35">
-        <v>-5.853280382476278E-2</v>
+        <v>-2.3346780093547181E-4</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>2649.8</v>
+        <v>2700.1</v>
       </c>
       <c r="B36">
-        <v>13.95</v>
+        <v>14</v>
       </c>
       <c r="C36">
-        <v>2653.1908802783732</v>
+        <v>2699.4481676388323</v>
       </c>
       <c r="D36">
-        <v>13.779332434976208</v>
+        <v>13.998240373616593</v>
       </c>
       <c r="E36">
-        <v>3.3908802783730607</v>
+        <v>-0.6518323611676351</v>
       </c>
       <c r="F36">
-        <v>-0.17066756502379121</v>
+        <v>-1.759626383407209E-3</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>2649.8</v>
+        <v>2700.1</v>
       </c>
       <c r="B37">
-        <v>15.97</v>
+        <v>16</v>
       </c>
       <c r="C37">
-        <v>2653.7357419430859</v>
+        <v>2699.5225244078638</v>
       </c>
       <c r="D37">
-        <v>15.636892390184286</v>
+        <v>15.983737100486385</v>
       </c>
       <c r="E37">
-        <v>3.935741943085759</v>
+        <v>-0.57747559213612476</v>
       </c>
       <c r="F37">
-        <v>-0.33310760981571441</v>
+        <v>-1.6262899513614926E-2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>2749.5</v>
+        <v>2799.8</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>2752.5314242604823</v>
+        <v>2798.6945795347247</v>
       </c>
       <c r="D38">
-        <v>2.1106867521831024E-2</v>
+        <v>-4.4116428290211548E-2</v>
       </c>
       <c r="E38">
-        <v>3.0314242604822539</v>
+        <v>-1.1054204652755288</v>
       </c>
       <c r="F38">
-        <v>2.1106867521831024E-2</v>
+        <v>-4.4116428290211548E-2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>2749.5</v>
+        <v>2799.8</v>
       </c>
       <c r="B39">
-        <v>-15.9</v>
+        <v>-16.07</v>
       </c>
       <c r="C39">
-        <v>2753.2124479012568</v>
+        <v>2799.177580976379</v>
       </c>
       <c r="D39">
-        <v>-15.791924484267653</v>
+        <v>-15.909459825861333</v>
       </c>
       <c r="E39">
-        <v>3.7124479012568372</v>
+        <v>-0.62241902362120527</v>
       </c>
       <c r="F39">
-        <v>0.10807551573234697</v>
+        <v>0.16054017413866717</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>2749.5</v>
+        <v>2799.8</v>
       </c>
       <c r="B40">
-        <v>-14.1</v>
+        <v>-13.95</v>
       </c>
       <c r="C40">
-        <v>2752.2483425043756</v>
+        <v>2798.3910081553408</v>
       </c>
       <c r="D40">
-        <v>-14.004073649574396</v>
+        <v>-13.86820638178159</v>
       </c>
       <c r="E40">
-        <v>2.7483425043756142</v>
+        <v>-1.4089918446593401</v>
       </c>
       <c r="F40">
-        <v>9.5926350425603601E-2</v>
+        <v>8.1793618218409136E-2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>2749.5</v>
+        <v>2799.8</v>
       </c>
       <c r="B41">
-        <v>-12.08</v>
+        <v>-11.98</v>
       </c>
       <c r="C41">
-        <v>2752.2581695993954</v>
+        <v>2798.7726035267233</v>
       </c>
       <c r="D41">
-        <v>-12.027853878972747</v>
+        <v>-11.929451600513502</v>
       </c>
       <c r="E41">
-        <v>2.7581695993953872</v>
+        <v>-1.0273964732768945</v>
       </c>
       <c r="F41">
-        <v>5.214612102725269E-2</v>
+        <v>5.0548399486498141E-2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>2749.5</v>
+        <v>2799.8</v>
       </c>
       <c r="B42">
-        <v>-10.1</v>
+        <v>-9.98</v>
       </c>
       <c r="C42">
-        <v>2752.2406718151337</v>
+        <v>2797.7503725012803</v>
       </c>
       <c r="D42">
-        <v>-10.07198075108621</v>
+        <v>-9.9538603138102477</v>
       </c>
       <c r="E42">
-        <v>2.7406718151337373</v>
+        <v>-2.0496274987199286</v>
       </c>
       <c r="F42">
-        <v>2.8019248913789596E-2</v>
+        <v>2.6139686189752709E-2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>2749.5</v>
+        <v>2799.8</v>
       </c>
       <c r="B43">
-        <v>-8.1</v>
+        <v>-7.98</v>
       </c>
       <c r="C43">
-        <v>2751.6436046819217</v>
+        <v>2798.3909856580954</v>
       </c>
       <c r="D43">
-        <v>-8.0833654346453443</v>
+        <v>-7.9715165738798071</v>
       </c>
       <c r="E43">
-        <v>2.1436046819217154</v>
+        <v>-1.4090143419048218</v>
       </c>
       <c r="F43">
-        <v>1.6634565354655351E-2</v>
+        <v>8.4834261201933714E-3</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>2749.5</v>
+        <v>2799.8</v>
       </c>
       <c r="B44">
-        <v>-6.1</v>
+        <v>-5.98</v>
       </c>
       <c r="C44">
-        <v>2751.7933289822968</v>
+        <v>2798.8074130016189</v>
       </c>
       <c r="D44">
-        <v>-6.0840910458793447</v>
+        <v>-6.0040308562576499</v>
       </c>
       <c r="E44">
-        <v>2.2933289822967708</v>
+        <v>-0.9925869983812845</v>
       </c>
       <c r="F44">
-        <v>1.5908954120654961E-2</v>
+        <v>-2.4030856257649447E-2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>2749.5</v>
+        <v>2799.8</v>
       </c>
       <c r="B45">
-        <v>-4.0999999999999996</v>
+        <v>-3.98</v>
       </c>
       <c r="C45">
-        <v>2753.1012505595118</v>
+        <v>2798.8760859412323</v>
       </c>
       <c r="D45">
-        <v>-4.0756315139097783</v>
+        <v>-3.9999817455015458</v>
       </c>
       <c r="E45">
-        <v>3.6012505595117545</v>
+        <v>-0.92391405876787758</v>
       </c>
       <c r="F45">
-        <v>2.4368486090221353E-2</v>
+        <v>-1.9981745501545856E-2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>2749.5</v>
+        <v>2799.8</v>
       </c>
       <c r="B46">
-        <v>-2.1</v>
+        <v>-1.98</v>
       </c>
       <c r="C46">
-        <v>2753.4494503620995</v>
+        <v>2798.6517700663589</v>
       </c>
       <c r="D46">
-        <v>-2.0570608209181116</v>
+        <v>-2.0101406562709925</v>
       </c>
       <c r="E46">
-        <v>3.9494503620994692</v>
+        <v>-1.1482299336412325</v>
       </c>
       <c r="F46">
-        <v>4.293917908188849E-2</v>
+        <v>-3.0140656270992494E-2</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>2749.5</v>
+        <v>2799.8</v>
       </c>
       <c r="B47">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>2752.6056645619515</v>
+        <v>2798.5459862593839</v>
       </c>
       <c r="D47">
-        <v>-3.7445903031351077E-2</v>
+        <v>-1.7538823776865456E-2</v>
       </c>
       <c r="E47">
-        <v>3.1056645619514711</v>
+        <v>-1.2540137406163012</v>
       </c>
       <c r="F47">
-        <v>6.2554096968648928E-2</v>
+        <v>-1.7538823776865456E-2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>2749.5</v>
+        <v>2799.8</v>
       </c>
       <c r="B48">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="C48">
-        <v>2753.2761952955743</v>
+        <v>2799.7270813160567</v>
       </c>
       <c r="D48">
-        <v>2.0058875490673209</v>
+        <v>2.010763462524221</v>
       </c>
       <c r="E48">
-        <v>3.7761952955743254</v>
+        <v>-7.2918683943498763E-2</v>
       </c>
       <c r="F48">
-        <v>0.10588754906732101</v>
+        <v>3.0763462524221019E-2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>2749.5</v>
+        <v>2799.8</v>
       </c>
       <c r="B49">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="C49">
-        <v>2752.8415192752891</v>
+        <v>2800.0917733757874</v>
       </c>
       <c r="D49">
-        <v>4.038789942534911</v>
+        <v>4.0447400636068265</v>
       </c>
       <c r="E49">
-        <v>3.3415192752891016</v>
+        <v>0.29177337578721563</v>
       </c>
       <c r="F49">
-        <v>0.13878994253491106</v>
+        <v>4.4740063606826475E-2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>2749.5</v>
+        <v>2799.8</v>
       </c>
       <c r="B50">
-        <v>5.9</v>
+        <v>6.05</v>
       </c>
       <c r="C50">
-        <v>2752.9974647897398</v>
+        <v>2798.8246007010662</v>
       </c>
       <c r="D50">
-        <v>6.0517854625174978</v>
+        <v>6.0611864896634335</v>
       </c>
       <c r="E50">
-        <v>3.4974647897397517</v>
+        <v>-0.97539929893400767</v>
       </c>
       <c r="F50">
-        <v>0.15178546251749747</v>
+        <v>1.1186489663433719E-2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>2749.5</v>
+        <v>2799.8</v>
       </c>
       <c r="B51">
-        <v>7.92</v>
+        <v>8</v>
       </c>
       <c r="C51">
-        <v>2753.1588899017388</v>
+        <v>2798.9589601735638</v>
       </c>
       <c r="D51">
-        <v>8.0613981649249542</v>
+        <v>8.0241576904360148</v>
       </c>
       <c r="E51">
-        <v>3.658889901738803</v>
+        <v>-0.8410398264363721</v>
       </c>
       <c r="F51">
-        <v>0.14139816492495427</v>
+        <v>2.4157690436014789E-2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>2749.5</v>
+        <v>2799.8</v>
       </c>
       <c r="B52">
-        <v>9.92</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="C52">
-        <v>2751.2193769201626</v>
+        <v>2797.4622438333204</v>
       </c>
       <c r="D52">
-        <v>10.054950566085571</v>
+        <v>10.030635496888005</v>
       </c>
       <c r="E52">
-        <v>1.719376920162631</v>
+        <v>-2.3377561666798101</v>
       </c>
       <c r="F52">
-        <v>0.13495056608557121</v>
+        <v>6.3549688800534909E-4</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>2749.5</v>
+        <v>2799.8</v>
       </c>
       <c r="B53">
-        <v>11.95</v>
+        <v>12</v>
       </c>
       <c r="C53">
-        <v>2751.9220783290893</v>
+        <v>2798.4707753079247</v>
       </c>
       <c r="D53">
-        <v>12.002236989728903</v>
+        <v>11.991762684758942</v>
       </c>
       <c r="E53">
-        <v>2.4220783290893451</v>
+        <v>-1.3292246920755133</v>
       </c>
       <c r="F53">
-        <v>5.2236989728903893E-2</v>
+        <v>-8.2373152410575301E-3</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>2749.5</v>
+        <v>2799.8</v>
       </c>
       <c r="B54">
-        <v>13.95</v>
+        <v>14</v>
       </c>
       <c r="C54">
-        <v>2751.240560062296</v>
+        <v>2797.4601362787812</v>
       </c>
       <c r="D54">
-        <v>13.926180491017092</v>
+        <v>13.981931584349377</v>
       </c>
       <c r="E54">
-        <v>1.7405600622960264</v>
+        <v>-2.3398637212189897</v>
       </c>
       <c r="F54">
-        <v>-2.3819508982906967E-2</v>
+        <v>-1.8068415650622782E-2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>2749.5</v>
+        <v>2799.8</v>
       </c>
       <c r="B55">
-        <v>15.97</v>
+        <v>16</v>
       </c>
       <c r="C55">
-        <v>2751.6671759119004</v>
+        <v>2799.200230762181</v>
       </c>
       <c r="D55">
-        <v>15.817690409266584</v>
+        <v>15.966257122277051</v>
       </c>
       <c r="E55">
-        <v>2.1671759119003582</v>
+        <v>-0.59976923781914593</v>
       </c>
       <c r="F55">
-        <v>-0.15230959073341666</v>
+        <v>-3.3742877722948705E-2</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>2849.2</v>
+        <v>2799.8</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>2852.772856680197</v>
+        <v>2800.595813435903</v>
       </c>
       <c r="D56">
-        <v>-4.6829718762359765E-2</v>
+        <v>-4.0437743172182149E-2</v>
       </c>
       <c r="E56">
-        <v>3.5728566801972192</v>
+        <v>0.79581343590280085</v>
       </c>
       <c r="F56">
-        <v>-4.6829718762359765E-2</v>
+        <v>-4.0437743172182149E-2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>2849.2</v>
+        <v>2799.8</v>
       </c>
       <c r="B57">
-        <v>-15.9</v>
+        <v>-16.07</v>
       </c>
       <c r="C57">
-        <v>2851.1198045439528</v>
+        <v>2800.7958026387846</v>
       </c>
       <c r="D57">
-        <v>-15.723450571281809</v>
+        <v>-15.908386211602272</v>
       </c>
       <c r="E57">
-        <v>1.9198045439529778</v>
+        <v>0.99580263878442565</v>
       </c>
       <c r="F57">
-        <v>0.17654942871819124</v>
+        <v>0.16161378839772844</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>2849.2</v>
+        <v>2799.8</v>
       </c>
       <c r="B58">
-        <v>-14.1</v>
+        <v>-13.98</v>
       </c>
       <c r="C58">
-        <v>2851.7639861440266</v>
+        <v>2799.9597545325651</v>
       </c>
       <c r="D58">
-        <v>-13.949658659587749</v>
+        <v>-13.862883935156482</v>
       </c>
       <c r="E58">
-        <v>2.563986144026785</v>
+        <v>0.15975453256487526</v>
       </c>
       <c r="F58">
-        <v>0.15034134041225045</v>
+        <v>0.11711606484351833</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>2849.2</v>
+        <v>2799.8</v>
       </c>
       <c r="B59">
-        <v>-12.1</v>
+        <v>-11.95</v>
       </c>
       <c r="C59">
-        <v>2851.5510194271365</v>
+        <v>2799.7713902993974</v>
       </c>
       <c r="D59">
-        <v>-12.018112883933988</v>
+        <v>-11.913583834762056</v>
       </c>
       <c r="E59">
-        <v>2.3510194271366345</v>
+        <v>-2.8609700602828525E-2</v>
       </c>
       <c r="F59">
-        <v>8.1887116066011956E-2</v>
+        <v>3.6416165237943332E-2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>2849.2</v>
+        <v>2799.8</v>
       </c>
       <c r="B60">
-        <v>-10.08</v>
+        <v>-9.98</v>
       </c>
       <c r="C60">
-        <v>2851.3128861424962</v>
+        <v>2798.8455482560507</v>
       </c>
       <c r="D60">
-        <v>-10.059634666354388</v>
+        <v>-9.9652843058702718</v>
       </c>
       <c r="E60">
-        <v>2.1128861424963361</v>
+        <v>-0.95445174394944843</v>
       </c>
       <c r="F60">
-        <v>2.0365333645612438E-2</v>
+        <v>1.4715694129728618E-2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>2849.2</v>
+        <v>2799.8</v>
       </c>
       <c r="B61">
-        <v>-8.1</v>
+        <v>-7.98</v>
       </c>
       <c r="C61">
-        <v>2851.2323585503218</v>
+        <v>2799.0423182604372</v>
       </c>
       <c r="D61">
-        <v>-8.1359422128558361</v>
+        <v>-7.9824777936500872</v>
       </c>
       <c r="E61">
-        <v>2.0323585503219874</v>
+        <v>-0.75768173956294049</v>
       </c>
       <c r="F61">
-        <v>-3.5942212855836431E-2</v>
+        <v>-2.4777936500868236E-3</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>2849.2</v>
+        <v>2799.8</v>
       </c>
       <c r="B62">
-        <v>-6.1</v>
+        <v>-5.98</v>
       </c>
       <c r="C62">
-        <v>2853.0052334395609</v>
+        <v>2800.9236787083514</v>
       </c>
       <c r="D62">
-        <v>-6.1291513985790491</v>
+        <v>-5.9877638124322621</v>
       </c>
       <c r="E62">
-        <v>3.8052334395611069</v>
+        <v>1.1236787083512354</v>
       </c>
       <c r="F62">
-        <v>-2.915139857904947E-2</v>
+        <v>-7.763812432261652E-3</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>2849.2</v>
+        <v>2799.8</v>
       </c>
       <c r="B63">
-        <v>-4.0999999999999996</v>
+        <v>-3.98</v>
       </c>
       <c r="C63">
-        <v>2851.0078902374999</v>
+        <v>2800.43906538187</v>
       </c>
       <c r="D63">
-        <v>-4.1383435508722082</v>
+        <v>-4.0081114163754323</v>
       </c>
       <c r="E63">
-        <v>1.8078902375000325</v>
+        <v>0.63906538186984108</v>
       </c>
       <c r="F63">
-        <v>-3.8343550872208532E-2</v>
+        <v>-2.8111416375432352E-2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>2849.2</v>
+        <v>2799.8</v>
       </c>
       <c r="B64">
-        <v>-2.1</v>
+        <v>-1.98</v>
       </c>
       <c r="C64">
-        <v>2851.5009553508203</v>
+        <v>2799.8682003814106</v>
       </c>
       <c r="D64">
-        <v>-2.1231754462577292</v>
+        <v>-2.0200213298463505</v>
       </c>
       <c r="E64">
-        <v>2.300955350820459</v>
+        <v>6.8200381410406408E-2</v>
       </c>
       <c r="F64">
-        <v>-2.317544625772916E-2</v>
+        <v>-4.002132984635054E-2</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>2849.2</v>
+        <v>2799.8</v>
       </c>
       <c r="B65">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>2852.835159454708</v>
+        <v>2800.5071115712058</v>
       </c>
       <c r="D65">
-        <v>-0.10717706124524551</v>
+        <v>-1.4484144052611503E-2</v>
       </c>
       <c r="E65">
-        <v>3.6351594547081731</v>
+        <v>0.7071115712055871</v>
       </c>
       <c r="F65">
-        <v>-7.1770612452455029E-3</v>
+        <v>-1.4484144052611503E-2</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>2849.2</v>
+        <v>2799.8</v>
       </c>
       <c r="B66">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="C66">
-        <v>2852.6561132448892</v>
+        <v>2799.7380607483547</v>
       </c>
       <c r="D66">
-        <v>1.9292147821037684</v>
+        <v>1.9979664892515687</v>
       </c>
       <c r="E66">
-        <v>3.4561132448893659</v>
+        <v>-6.1939251645526383E-2</v>
       </c>
       <c r="F66">
-        <v>2.9214782103768488E-2</v>
+        <v>1.796648925156874E-2</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>2849.2</v>
+        <v>2799.8</v>
       </c>
       <c r="B67">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="C67">
-        <v>2852.8048427170352</v>
+        <v>2800.0865134324963</v>
       </c>
       <c r="D67">
-        <v>3.9658435532931171</v>
+        <v>4.0403863175093484</v>
       </c>
       <c r="E67">
-        <v>3.6048427170353534</v>
+        <v>0.28651343249612182</v>
       </c>
       <c r="F67">
-        <v>6.5843553293117196E-2</v>
+        <v>4.0386317509348402E-2</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>2849.2</v>
+        <v>2799.8</v>
       </c>
       <c r="B68">
-        <v>5.9</v>
+        <v>6.05</v>
       </c>
       <c r="C68">
-        <v>2852.1752220586868</v>
+        <v>2800.0262023232272</v>
       </c>
       <c r="D68">
-        <v>5.996942091325101</v>
+        <v>6.053533265150727</v>
       </c>
       <c r="E68">
-        <v>2.9752220586869953</v>
+        <v>0.2262023232269712</v>
       </c>
       <c r="F68">
-        <v>9.6942091325100677E-2</v>
+        <v>3.5332651507271606E-3</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>2849.2</v>
+        <v>2799.8</v>
       </c>
       <c r="B69">
-        <v>7.92</v>
+        <v>8</v>
       </c>
       <c r="C69">
-        <v>2852.3382320666306</v>
+        <v>2800.1576515932952</v>
       </c>
       <c r="D69">
-        <v>8.0116773183070631</v>
+        <v>8.0175579533717602</v>
       </c>
       <c r="E69">
-        <v>3.1382320666307351</v>
+        <v>0.35765159329503149</v>
       </c>
       <c r="F69">
-        <v>9.167731830706316E-2</v>
+        <v>1.7557953371760249E-2</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>2849.2</v>
+        <v>2799.8</v>
       </c>
       <c r="B70">
-        <v>9.92</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="C70">
-        <v>2850.5565004210107</v>
+        <v>2799.6391634683082</v>
       </c>
       <c r="D70">
-        <v>10.015018133987184</v>
+        <v>10.015189808890183</v>
       </c>
       <c r="E70">
-        <v>1.3565004210108782</v>
+        <v>-0.16083653169198442</v>
       </c>
       <c r="F70">
-        <v>9.5018133987183617E-2</v>
+        <v>-1.4810191109816628E-2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>2849.2</v>
+        <v>2799.8</v>
       </c>
       <c r="B71">
-        <v>11.95</v>
+        <v>12</v>
       </c>
       <c r="C71">
-        <v>2851.4342081867057</v>
+        <v>2799.7014827816788</v>
       </c>
       <c r="D71">
-        <v>11.985375534113169</v>
+        <v>11.997391991473933</v>
       </c>
       <c r="E71">
-        <v>2.2342081867059278</v>
+        <v>-9.8517218321376276E-2</v>
       </c>
       <c r="F71">
-        <v>3.5375534113169849E-2</v>
+        <v>-2.6080085260673513E-3</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>2849.2</v>
+        <v>2799.8</v>
       </c>
       <c r="B72">
-        <v>13.95</v>
+        <v>14</v>
       </c>
       <c r="C72">
-        <v>2850.2517218532071</v>
+        <v>2799.3149013232201</v>
       </c>
       <c r="D72">
-        <v>13.936516369200175</v>
+        <v>13.975264618740272</v>
       </c>
       <c r="E72">
-        <v>1.0517218532072548</v>
+        <v>-0.48509867678012597</v>
       </c>
       <c r="F72">
-        <v>-1.3483630799823842E-2</v>
+        <v>-2.4735381259727518E-2</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>2849.2</v>
+        <v>2799.8</v>
       </c>
       <c r="B73">
-        <v>15.97</v>
+        <v>16</v>
       </c>
       <c r="C73">
-        <v>2851.6102878514685</v>
+        <v>2799.9802607492788</v>
       </c>
       <c r="D73">
-        <v>15.867279507167364</v>
+        <v>15.960673744320946</v>
       </c>
       <c r="E73">
-        <v>2.4102878514686381</v>
+        <v>0.1802607492786592</v>
       </c>
       <c r="F73">
-        <v>-0.10272049283263662</v>
+        <v>-3.9326255679053901E-2</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>2951.3</v>
+        <v>2899.5</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>2952.6761717043323</v>
+        <v>2899.5866377123079</v>
       </c>
       <c r="D74">
-        <v>-6.0829983611578688E-2</v>
+        <v>-5.2028133889707097E-2</v>
       </c>
       <c r="E74">
-        <v>1.3761717043321369</v>
+        <v>8.6637712307947368E-2</v>
       </c>
       <c r="F74">
-        <v>-6.0829983611578688E-2</v>
+        <v>-5.2028133889707097E-2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>2951.3</v>
+        <v>2899.5</v>
       </c>
       <c r="B75">
-        <v>-16.07</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="C75">
-        <v>2951.0720574601501</v>
+        <v>2898.8311173800507</v>
       </c>
       <c r="D75">
-        <v>-15.77052556237811</v>
+        <v>-15.895407530261306</v>
       </c>
       <c r="E75">
-        <v>-0.22794253985011892</v>
+        <v>-0.66888261994927234</v>
       </c>
       <c r="F75">
-        <v>0.29947443762189074</v>
+        <v>0.20459246973869583</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>2951.3</v>
+        <v>2899.5</v>
       </c>
       <c r="B76">
-        <v>-14</v>
+        <v>-13.97</v>
       </c>
       <c r="C76">
-        <v>2950.0302503275134</v>
+        <v>2898.9780867534182</v>
       </c>
       <c r="D76">
-        <v>-13.744474749414556</v>
+        <v>-13.830302984908856</v>
       </c>
       <c r="E76">
-        <v>-1.269749672486796</v>
+        <v>-0.52191324658178928</v>
       </c>
       <c r="F76">
-        <v>0.2555252505854444</v>
+        <v>0.13969701509114429</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>2951.3</v>
+        <v>2899.5</v>
       </c>
       <c r="B77">
-        <v>-11.98</v>
+        <v>-11.95</v>
       </c>
       <c r="C77">
-        <v>2948.987995177753</v>
+        <v>2897.9060575200992</v>
       </c>
       <c r="D77">
-        <v>-11.7901996470351</v>
+        <v>-11.874970902131011</v>
       </c>
       <c r="E77">
-        <v>-2.3120048222472178</v>
+        <v>-1.5939424799007611</v>
       </c>
       <c r="F77">
-        <v>0.18980035296489994</v>
+        <v>7.5029097868988259E-2</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>2951.3</v>
+        <v>2899.5</v>
       </c>
       <c r="B78">
-        <v>-9.9499999999999993</v>
+        <v>-9.9700000000000006</v>
       </c>
       <c r="C78">
-        <v>2949.4027519054544</v>
+        <v>2899.0208266320537</v>
       </c>
       <c r="D78">
-        <v>-9.838003209139762</v>
+        <v>-9.9305285155326999</v>
       </c>
       <c r="E78">
-        <v>-1.8972480945458301</v>
+        <v>-0.47917336794625953</v>
       </c>
       <c r="F78">
-        <v>0.11199679086023728</v>
+        <v>3.9471484467300755E-2</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>2951.3</v>
+        <v>2899.5</v>
       </c>
       <c r="B79">
-        <v>-8</v>
+        <v>-7.97</v>
       </c>
       <c r="C79">
-        <v>2949.958127696862</v>
+        <v>2898.9909276224967</v>
       </c>
       <c r="D79">
-        <v>-7.910040543418317</v>
+        <v>-7.9709415815162252</v>
       </c>
       <c r="E79">
-        <v>-1.3418723031381887</v>
+        <v>-0.50907237750334389</v>
       </c>
       <c r="F79">
-        <v>8.9959456581683028E-2</v>
+        <v>-9.4158151622547592E-4</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>2951.3</v>
+        <v>2899.5</v>
       </c>
       <c r="B80">
-        <v>-5.95</v>
+        <v>-5.97</v>
       </c>
       <c r="C80">
-        <v>2950.9115391676164</v>
+        <v>2899.666715155437</v>
       </c>
       <c r="D80">
-        <v>-5.920173429216347</v>
+        <v>-5.9818847256984986</v>
       </c>
       <c r="E80">
-        <v>-0.38846083238377105</v>
+        <v>0.16671515543703208</v>
       </c>
       <c r="F80">
-        <v>2.9826570783653139E-2</v>
+        <v>-1.1884725698498855E-2</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>2951.3</v>
+        <v>2899.5</v>
       </c>
       <c r="B81">
-        <v>-4</v>
+        <v>-3.97</v>
       </c>
       <c r="C81">
-        <v>2950.2116452551477</v>
+        <v>2899.9672315666089</v>
       </c>
       <c r="D81">
-        <v>-3.9775923749776161</v>
+        <v>-3.9898820346230868</v>
       </c>
       <c r="E81">
-        <v>-1.0883547448524951</v>
+        <v>0.46723156660891618</v>
       </c>
       <c r="F81">
-        <v>2.2407625022383915E-2</v>
+        <v>-1.9882034623086575E-2</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>2951.3</v>
+        <v>2899.5</v>
       </c>
       <c r="B82">
         <v>-2</v>
       </c>
       <c r="C82">
-        <v>2952.3165168841069</v>
+        <v>2898.8638134185549</v>
       </c>
       <c r="D82">
-        <v>-2.0128685244226254</v>
+        <v>-2.0025813218359843</v>
       </c>
       <c r="E82">
-        <v>1.0165168841067498</v>
+        <v>-0.63618658144514484</v>
       </c>
       <c r="F82">
-        <v>-1.2868524422625427E-2</v>
+        <v>-2.5813218359842516E-3</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>2951.3</v>
+        <v>2899.5</v>
       </c>
       <c r="B83">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>2953.0398500208562</v>
+        <v>2899.3345994372271</v>
       </c>
       <c r="D83">
-        <v>1.03344506914271E-2</v>
+        <v>1.3710591155683542E-2</v>
       </c>
       <c r="E83">
-        <v>1.7398500208560108</v>
+        <v>-0.16540056277290205</v>
       </c>
       <c r="F83">
-        <v>-9.6655493085729006E-3</v>
+        <v>1.3710591155683542E-2</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>2951.3</v>
+        <v>2899.5</v>
       </c>
       <c r="B84">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="C84">
-        <v>2951.4554764397167</v>
+        <v>2900.0498732848728</v>
       </c>
       <c r="D84">
-        <v>1.9579954328477696</v>
+        <v>2.03438971615383</v>
       </c>
       <c r="E84">
-        <v>0.1554764397164945</v>
+        <v>0.54987328487277409</v>
       </c>
       <c r="F84">
-        <v>-2.2004567152230425E-2</v>
+        <v>3.4389716153830019E-2</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>2951.3</v>
+        <v>2899.5</v>
       </c>
       <c r="B85">
         <v>4</v>
       </c>
       <c r="C85">
-        <v>2952.8732166054583</v>
+        <v>2900.2582011020609</v>
       </c>
       <c r="D85">
-        <v>3.9805809546437207</v>
+        <v>4.0420294862153803</v>
       </c>
       <c r="E85">
-        <v>1.5732166054581285</v>
+        <v>0.75820110206086611</v>
       </c>
       <c r="F85">
-        <v>-1.9419045356279252E-2</v>
+        <v>4.2029486215380274E-2</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>2951.3</v>
+        <v>2899.5</v>
       </c>
       <c r="B86">
-        <v>5.98</v>
+        <v>6.05</v>
       </c>
       <c r="C86">
-        <v>2951.7336349484985</v>
+        <v>2899.3868692387205</v>
       </c>
       <c r="D86">
-        <v>5.9688849570872025</v>
+        <v>6.0500000000026599</v>
       </c>
       <c r="E86">
-        <v>0.4336349484983657</v>
+        <v>-0.11313076127953536</v>
       </c>
       <c r="F86">
-        <v>-1.1115042912797968E-2</v>
+        <v>2.6600943670018751E-12</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>2951.3</v>
+        <v>2899.5</v>
       </c>
       <c r="B87">
-        <v>7.98</v>
+        <v>8</v>
       </c>
       <c r="C87">
-        <v>2950.9915720813055</v>
+        <v>2899.4171875112829</v>
       </c>
       <c r="D87">
-        <v>7.9819023102603737</v>
+        <v>8.0117544820712361</v>
       </c>
       <c r="E87">
-        <v>-0.30842791869463326</v>
+        <v>-8.2812488717081578E-2</v>
       </c>
       <c r="F87">
-        <v>1.9023102603732411E-3</v>
+        <v>1.1754482071236083E-2</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>2951.3</v>
+        <v>2899.5</v>
       </c>
       <c r="B88">
-        <v>9.98</v>
+        <v>10</v>
       </c>
       <c r="C88">
-        <v>2950.7847572238225</v>
+        <v>2899.2790768276968</v>
       </c>
       <c r="D88">
-        <v>9.9847305699937792</v>
+        <v>10.008227667166759</v>
       </c>
       <c r="E88">
-        <v>-0.51524277617772896</v>
+        <v>-0.22092317230317349</v>
       </c>
       <c r="F88">
-        <v>4.7305699937787438E-3</v>
+        <v>8.2276671667589341E-3</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>2951.3</v>
+        <v>2899.5</v>
       </c>
       <c r="B89">
-        <v>11.95</v>
+        <v>12.03</v>
       </c>
       <c r="C89">
-        <v>2950.6575604453078</v>
+        <v>2898.7560920827227</v>
       </c>
       <c r="D89">
-        <v>11.990639420545454</v>
+        <v>12.006142624409259</v>
       </c>
       <c r="E89">
-        <v>-0.64243955469237335</v>
+        <v>-0.74390791727728356</v>
       </c>
       <c r="F89">
-        <v>4.0639420545454996E-2</v>
+        <v>-2.3857375590740304E-2</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>2951.3</v>
+        <v>2899.5</v>
       </c>
       <c r="B90">
         <v>13.98</v>
       </c>
       <c r="C90">
-        <v>2950.816186798073</v>
+        <v>2898.9474074683462</v>
       </c>
       <c r="D90">
-        <v>14.002028403641864</v>
+        <v>13.960714654707873</v>
       </c>
       <c r="E90">
-        <v>-0.48381320192720523</v>
+        <v>-0.55259253165377231</v>
       </c>
       <c r="F90">
-        <v>2.2028403641863648E-2</v>
+        <v>-1.9285345292127332E-2</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>2951.3</v>
+        <v>2899.5</v>
       </c>
       <c r="B91">
-        <v>15.95</v>
+        <v>16</v>
       </c>
       <c r="C91">
-        <v>2950.2620679296219</v>
+        <v>2898.695839754967</v>
       </c>
       <c r="D91">
-        <v>15.990605648605051</v>
+        <v>15.972061224177333</v>
       </c>
       <c r="E91">
-        <v>-1.0379320703782469</v>
+        <v>-0.80416024503301742</v>
       </c>
       <c r="F91">
-        <v>4.060564860505167E-2</v>
+        <v>-2.7938775822667239E-2</v>
       </c>
     </row>
   </sheetData>
